--- a/AEC ML Classwork.xlsx
+++ b/AEC ML Classwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AEC ML Python Jan 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27ADDC3-5043-414D-AB49-7723E20DED30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED7757-1AAA-4FDE-8002-53A7BA18451B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8CC9547A-2696-4746-9FED-81AAE1334FA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8CC9547A-2696-4746-9FED-81AAE1334FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation and Regression" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -790,88 +790,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -992,19 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1026,12 +937,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1128,6 +1063,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
@@ -1149,41 +1085,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,15 +1138,77 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A99A7498-3D79-4D0B-A13A-861C2DF6DE79}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1521,43 +1508,6 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -5991,7 +5941,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB43EA3F-2639-4912-A6CD-68B1FA4DA1FC}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB43EA3F-2639-4912-A6CD-68B1FA4DA1FC}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="39">
   <autoFilter ref="A1:J151" xr:uid="{62B4E930-DFF6-4BF0-9F1C-5E4C67D47D9A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6008,24 +5958,24 @@
     <sortCondition ref="A2:A151"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F0E770F0-76D0-4E11-9E1C-BA6E469FD0C4}" name="Serial" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{09320463-33D6-4CC2-9A0A-E4451188FE36}" name="sepal_length" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{9EC19524-51FF-4BF4-AB27-728B3DD8D3DB}" name="sepal_width" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{EF24EDC0-A29C-41B6-A1E7-4EBF8635E391}" name="petal_length" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{780AEFD8-6D38-4193-AF80-A63FC8649791}" name="petal_width" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{AC2B65EA-BFFE-45BF-8ED1-FBDB797FC323}" name="species" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{3DA0E41B-844F-4D7A-A45D-228596D56C22}" name="Euclidean_x000a_Distance" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{F0E770F0-76D0-4E11-9E1C-BA6E469FD0C4}" name="Serial" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{09320463-33D6-4CC2-9A0A-E4451188FE36}" name="sepal_length" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{9EC19524-51FF-4BF4-AB27-728B3DD8D3DB}" name="sepal_width" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{EF24EDC0-A29C-41B6-A1E7-4EBF8635E391}" name="petal_length" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{780AEFD8-6D38-4193-AF80-A63FC8649791}" name="petal_width" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{AC2B65EA-BFFE-45BF-8ED1-FBDB797FC323}" name="species" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{3DA0E41B-844F-4D7A-A45D-228596D56C22}" name="Euclidean_x000a_Distance" dataDxfId="1">
       <calculatedColumnFormula>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{406E0FBE-82DA-4F46-AAB8-DBCF6204FBF3}" name="Rank" dataDxfId="30">
+    <tableColumn id="8" xr3:uid="{406E0FBE-82DA-4F46-AAB8-DBCF6204FBF3}" name="Rank" dataDxfId="0">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CA793E46-2D4C-4DB1-9517-34DD947BF02F}" name="Manhattan_x000a_Distance" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{CA793E46-2D4C-4DB1-9517-34DD947BF02F}" name="Manhattan_x000a_Distance" dataDxfId="32">
       <calculatedColumnFormula>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2BAF090F-8A9E-425C-B25F-B673B8775D4B}" name="Rank2" dataDxfId="28">
+    <tableColumn id="10" xr3:uid="{2BAF090F-8A9E-425C-B25F-B673B8775D4B}" name="Rank2" dataDxfId="31">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</calculatedColumnFormula>
@@ -7136,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663F500-68C0-45DB-8CA7-48337AD5C32E}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7190,23 +7140,23 @@
       <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3" s="83">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="84">
         <v>3.5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="50">
         <f>SQRT((B3-$J$4)^2+(C3-$K$4)^2)</f>
         <v>1.3</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="51">
         <f>RANK(E3,$E$3:$E$17,1)</f>
         <v>10</v>
       </c>
@@ -7214,46 +7164,46 @@
         <f>ABS(B3-$J$4)+ABS(C3-$K$4)</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="49">
         <f>RANK(G3,$G$3:$G$17,1)</f>
         <v>11</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91">
+      <c r="A4" s="85">
         <v>2</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="86">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="87">
         <v>3</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="56">
         <f t="shared" ref="E4:E17" si="0">SQRT((B4-$J$4)^2+(C4-$K$4)^2)</f>
         <v>1.3999999999999995</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="57">
         <f t="shared" ref="F4:F17" si="1">RANK(E4,$E$3:$E$17,1)</f>
         <v>11</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="53">
         <f t="shared" ref="G4:G17" si="2">ABS(B4-$J$4)+ABS(C4-$K$4)</f>
         <v>1.3999999999999995</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="55">
         <f t="shared" ref="H4:H17" si="3">RANK(G4,$G$3:$G$17,1)</f>
         <v>8</v>
       </c>
@@ -7263,400 +7213,400 @@
       <c r="K4" s="45">
         <v>3</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="91">
+      <c r="A5" s="85">
         <v>3</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="86">
         <v>4.7</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="87">
         <v>3.2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="56">
         <f t="shared" si="0"/>
         <v>1.6124515496597096</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="57">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="53">
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="55">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="91">
+      <c r="A6" s="85">
         <v>4</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="86">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="87">
         <v>3.1</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="56">
         <f t="shared" si="0"/>
         <v>1.7029386365926404</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="53">
         <f t="shared" si="2"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="55">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="91">
+      <c r="A7" s="85">
         <v>5</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="86">
         <v>5</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="87">
         <v>3.6</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="56">
         <f t="shared" si="0"/>
         <v>1.4317821063276353</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="57">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="53">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="55">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="91">
+      <c r="A8" s="85">
         <v>6</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="86">
         <v>5.5</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="87">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="56">
         <f t="shared" si="0"/>
         <v>1.0630145812734648</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="57">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="53">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="55">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="91">
+      <c r="A9" s="85">
         <v>7</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="86">
         <v>6.5</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="87">
         <v>2.8</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>0.28284271247461928</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="53">
         <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="55">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="91">
+      <c r="A10" s="85">
         <v>8</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="86">
         <v>5.7</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="87">
         <v>2.8</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="56">
         <f t="shared" si="0"/>
         <v>0.63245553203367566</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="57">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="53">
         <f t="shared" si="2"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="55">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="91">
+      <c r="A11" s="85">
         <v>9</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="86">
         <v>6.3</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="87">
         <v>3.3</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="56">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="53">
         <f t="shared" si="2"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="91">
+      <c r="A12" s="85">
         <v>10</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="86">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="87">
         <v>2.4</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="56">
         <f t="shared" si="0"/>
         <v>1.5231546211727811</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="57">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="53">
         <f t="shared" si="2"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="55">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="91">
+      <c r="A13" s="85">
         <v>11</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="86">
         <v>7.2</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="87">
         <v>3.6</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="56">
         <f t="shared" si="0"/>
         <v>1.0816653826391971</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="53">
         <f t="shared" si="2"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="55">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="91">
+      <c r="A14" s="85">
         <v>12</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="86">
         <v>6.5</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="87">
         <v>3.2</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="56">
         <f t="shared" si="0"/>
         <v>0.28284271247461928</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="53">
         <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="55">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="91">
+      <c r="A15" s="85">
         <v>13</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="86">
         <v>6.4</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="87">
         <v>2.7</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="56">
         <f t="shared" si="0"/>
         <v>0.31622776601683794</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="53">
         <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="55">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="91">
+      <c r="A16" s="85">
         <v>14</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="86">
         <v>6.8</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C16" s="87">
         <v>3</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="56">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="53">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="55">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="94">
+      <c r="A17" s="88">
         <v>15</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="89">
         <v>5.7</v>
       </c>
-      <c r="C17" s="96">
+      <c r="C17" s="90">
         <v>2.5</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="60">
         <f t="shared" si="0"/>
         <v>0.7810249675906652</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="61">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="58">
         <f t="shared" si="2"/>
         <v>1.0999999999999996</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="59">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -7666,16 +7616,16 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="top10" dxfId="24" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="27" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F17">
-    <cfRule type="top10" dxfId="23" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="26" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="top10" dxfId="22" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="25" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H17">
-    <cfRule type="top10" dxfId="18" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="21" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7687,8 +7637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEF0184-308C-4FBC-8A46-F8970544F1C1}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7711,118 +7661,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="65">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="48">
         <v>3.5</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="48">
         <v>1.4</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="48">
         <v>0.2</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="98">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4788647573597911</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="49">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>129</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="99">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.3500000000000005</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="96">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>134</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="54">
         <v>3</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="54">
         <v>1.4</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="54">
         <v>0.2</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.504639781775011</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>132</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.05</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
@@ -7831,5431 +7781,5431 @@
       <c r="L3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="99" t="s">
+      <c r="P3" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="68">
         <v>4.7</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>3.2</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="54">
         <v>1.3</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="54">
         <v>0.2</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.7057387927375562</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>144</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.55</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>140</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="74">
         <v>6.7</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="75">
         <v>2.75</v>
       </c>
-      <c r="N4" s="80">
+      <c r="N4" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="76">
         <v>1.5</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="73">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="68">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="54">
         <v>3.1</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="54">
         <v>1.5</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="54">
         <v>0.2</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.603123644839294</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>140</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.3500000000000005</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="68">
         <v>5</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="54">
         <v>3.6</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="54">
         <v>1.4</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="54">
         <v>0.2</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5485912697858004</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>136</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.55</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="68">
         <v>5.4</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="54">
         <v>3.9</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="54">
         <v>1.7</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="54">
         <v>0.4</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1595094555959156</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>105</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.9499999999999993</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="73">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="67">
         <v>7</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="68">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="54">
         <v>3.4</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="54">
         <v>1.4</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="54">
         <v>0.3</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.6827299656640586</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>142</v>
       </c>
-      <c r="I8" s="75">
+      <c r="I8" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.65</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="73">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="68">
         <v>5</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="54">
         <v>3.4</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="54">
         <v>1.5</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="54">
         <v>0.2</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.429650127928503</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>121</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.2499999999999991</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="73">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67">
         <v>9</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="68">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="54">
         <v>2.9</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="54">
         <v>1.4</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="54">
         <v>0.2</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.7805422891431855</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>145</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.4499999999999993</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67">
         <v>10</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="54">
         <v>3.1</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="54">
         <v>1.5</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="54">
         <v>0.1</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4759890678769398</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>126</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.15</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67">
         <v>11</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="68">
         <v>5.4</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="54">
         <v>3.7</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="54">
         <v>1.5</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="54">
         <v>0.2</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3230257296626515</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>111</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.1499999999999995</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="73">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="68">
         <v>4.8</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="54">
         <v>3.4</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="54">
         <v>1.6</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="54">
         <v>0.2</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4601300553591909</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>124</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.35</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="67">
         <v>13</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="68">
         <v>4.8</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="54">
         <v>3</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="54">
         <v>1.4</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="54">
         <v>0.1</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5947878936037378</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>139</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.25</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="73">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="68">
         <v>4.3</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="54">
         <v>3</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="54">
         <v>0.1</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>4.0966449687518685</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>150</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>7.0500000000000007</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="67">
         <v>15</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="68">
         <v>5.8</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="54">
         <v>4</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="54">
         <v>1.2</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="54">
         <v>0.2</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5316426772820599</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>134</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.35</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="73">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="67">
         <v>16</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="68">
         <v>5.7</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="54">
         <v>1.5</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="54">
         <v>0.4</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4194297770242335</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>120</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.35</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="73">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="67">
         <v>17</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="68">
         <v>5.4</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="54">
         <v>3.9</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="54">
         <v>1.3</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="54">
         <v>0.4</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.473110997362451</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>125</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.35</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="73">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="67">
         <v>18</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="54">
         <v>3.5</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="54">
         <v>1.4</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="54">
         <v>0.3</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4427459970204017</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>122</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.2500000000000009</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="67">
         <v>19</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="68">
         <v>5.7</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="54">
         <v>3.8</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="54">
         <v>1.7</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="54">
         <v>0.3</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0499999999999994</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>99</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.6499999999999995</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="73">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="67">
         <v>20</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="54">
         <v>3.8</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="54">
         <v>1.5</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="54">
         <v>0.3</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4441980198589044</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>123</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.45</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="73">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="67">
         <v>21</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="68">
         <v>5.4</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="54">
         <v>3.4</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="54">
         <v>1.7</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="54">
         <v>0.2</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0923292192132448</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>102</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.6499999999999995</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="73">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="67">
         <v>22</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="54">
         <v>3.7</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="54">
         <v>1.5</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="54">
         <v>0.4</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3811980125393428</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>115</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.25</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J23" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="67">
         <v>23</v>
       </c>
-      <c r="B24" s="74">
+      <c r="B24" s="68">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="54">
         <v>3.6</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="54">
         <v>1</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="54">
         <v>0.2</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>4.0537020117418594</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>149</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>7.3500000000000005</v>
       </c>
-      <c r="J24" s="76">
+      <c r="J24" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="73">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="67">
         <v>24</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B25" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="54">
         <v>3.3</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="54">
         <v>1.7</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="54">
         <v>0.5</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1020154738492196</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>103</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.55</v>
       </c>
-      <c r="J25" s="76">
+      <c r="J25" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="73">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="67">
         <v>25</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="68">
         <v>4.8</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="54">
         <v>3.4</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="54">
         <v>1.9</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="54">
         <v>0.2</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.2499999999999996</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>108</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.05</v>
       </c>
-      <c r="J26" s="76">
+      <c r="J26" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="73">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="67">
         <v>26</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="68">
         <v>5</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="54">
         <v>3</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="54">
         <v>1.6</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="54">
         <v>0.2</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3003787661418498</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>110</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.7499999999999991</v>
       </c>
-      <c r="J27" s="76">
+      <c r="J27" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="73">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="67">
         <v>27</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="68">
         <v>5</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="54">
         <v>3.4</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="54">
         <v>1.6</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="54">
         <v>0.4</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.2821486864552618</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>109</v>
       </c>
-      <c r="I28" s="75">
+      <c r="I28" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.9499999999999993</v>
       </c>
-      <c r="J28" s="76">
+      <c r="J28" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="73">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="67">
         <v>28</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="68">
         <v>5.2</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="54">
         <v>3.5</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="54">
         <v>1.5</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="54">
         <v>0.2</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3559648389099666</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>112</v>
       </c>
-      <c r="I29" s="75">
+      <c r="I29" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.1499999999999995</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="73">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="67">
         <v>29</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="68">
         <v>5.2</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="54">
         <v>3.4</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="54">
         <v>1.4</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="54">
         <v>0.2</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4135758377396566</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>118</v>
       </c>
-      <c r="I30" s="75">
+      <c r="I30" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.1499999999999995</v>
       </c>
-      <c r="J30" s="76">
+      <c r="J30" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="73">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="67">
         <v>30</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B31" s="68">
         <v>4.7</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="54">
         <v>3.2</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="54">
         <v>1.6</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="54">
         <v>0.2</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4846090168051851</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>130</v>
       </c>
-      <c r="I31" s="75">
+      <c r="I31" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.2499999999999991</v>
       </c>
-      <c r="J31" s="76">
+      <c r="J31" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="73">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="67">
         <v>31</v>
       </c>
-      <c r="B32" s="74">
+      <c r="B32" s="68">
         <v>4.8</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="54">
         <v>3.1</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="54">
         <v>1.6</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="54">
         <v>0.2</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G32" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.416504061171302</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>119</v>
       </c>
-      <c r="I32" s="75">
+      <c r="I32" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.05</v>
       </c>
-      <c r="J32" s="76">
+      <c r="J32" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="73">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="67">
         <v>32</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B33" s="68">
         <v>5.4</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="54">
         <v>3.4</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="54">
         <v>1.5</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="54">
         <v>0.4</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1752952618614851</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>106</v>
       </c>
-      <c r="I33" s="75">
+      <c r="I33" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.6499999999999986</v>
       </c>
-      <c r="J33" s="76">
+      <c r="J33" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="73">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="67">
         <v>33</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="68">
         <v>5.2</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="54">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="54">
         <v>1.5</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="54">
         <v>0.1</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5766604535516082</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>138</v>
       </c>
-      <c r="I34" s="75">
+      <c r="I34" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.85</v>
       </c>
-      <c r="J34" s="76">
+      <c r="J34" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="73">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="67">
         <v>34</v>
       </c>
-      <c r="B35" s="74">
+      <c r="B35" s="68">
         <v>5.5</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="54">
         <v>4.2</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="54">
         <v>1.4</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="54">
         <v>0.2</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.538714455844099</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>135</v>
       </c>
-      <c r="I35" s="75">
+      <c r="I35" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.6499999999999995</v>
       </c>
-      <c r="J35" s="76">
+      <c r="J35" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="73">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="67">
         <v>35</v>
       </c>
-      <c r="B36" s="74">
+      <c r="B36" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="54">
         <v>3.1</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="54">
         <v>1.5</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="54">
         <v>0.1</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4759890678769398</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>126</v>
       </c>
-      <c r="I36" s="75">
+      <c r="I36" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.15</v>
       </c>
-      <c r="J36" s="76">
+      <c r="J36" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="73">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="67">
         <v>36</v>
       </c>
-      <c r="B37" s="74">
+      <c r="B37" s="68">
         <v>5</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="54">
         <v>3.2</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="54">
         <v>1.2</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="54">
         <v>0.2</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.6321481247328</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>141</v>
       </c>
-      <c r="I37" s="75">
+      <c r="I37" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.35</v>
       </c>
-      <c r="J37" s="76">
+      <c r="J37" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="67">
         <v>37</v>
       </c>
-      <c r="B38" s="74">
+      <c r="B38" s="68">
         <v>5.5</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="54">
         <v>3.5</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="54">
         <v>1.3</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="54">
         <v>0.2</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G38" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3959534743573858</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>116</v>
       </c>
-      <c r="I38" s="75">
+      <c r="I38" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.05</v>
       </c>
-      <c r="J38" s="76">
+      <c r="J38" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="73">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="67">
         <v>38</v>
       </c>
-      <c r="B39" s="74">
+      <c r="B39" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="54">
         <v>3.1</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="54">
         <v>1.5</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="54">
         <v>0.1</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4759890678769398</v>
       </c>
-      <c r="H39" s="54">
+      <c r="H39" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>126</v>
       </c>
-      <c r="I39" s="75">
+      <c r="I39" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.15</v>
       </c>
-      <c r="J39" s="76">
+      <c r="J39" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="73">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="67">
         <v>39</v>
       </c>
-      <c r="B40" s="74">
+      <c r="B40" s="68">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="54">
         <v>3</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="54">
         <v>1.3</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="54">
         <v>0.2</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.8577843381920665</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>147</v>
       </c>
-      <c r="I40" s="75">
+      <c r="I40" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.6499999999999995</v>
       </c>
-      <c r="J40" s="76">
+      <c r="J40" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="73">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="67">
         <v>40</v>
       </c>
-      <c r="B41" s="74">
+      <c r="B41" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="54">
         <v>3.4</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="54">
         <v>1.5</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="54">
         <v>0.2</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3811980125393424</v>
       </c>
-      <c r="H41" s="54">
+      <c r="H41" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>114</v>
       </c>
-      <c r="I41" s="75">
+      <c r="I41" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.1499999999999995</v>
       </c>
-      <c r="J41" s="76">
+      <c r="J41" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="73">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="67">
         <v>41</v>
       </c>
-      <c r="B42" s="74">
+      <c r="B42" s="68">
         <v>5</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="54">
         <v>3.5</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="54">
         <v>1.3</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="54">
         <v>0.3</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5682628826923612</v>
       </c>
-      <c r="H42" s="54">
+      <c r="H42" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>137</v>
       </c>
-      <c r="I42" s="75">
+      <c r="I42" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.45</v>
       </c>
-      <c r="J42" s="76">
+      <c r="J42" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="73">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="67">
         <v>42</v>
       </c>
-      <c r="B43" s="74">
+      <c r="B43" s="68">
         <v>4.5</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="54">
         <v>1.3</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="54">
         <v>0.3</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G43" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.7845078940332519</v>
       </c>
-      <c r="H43" s="54">
+      <c r="H43" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>146</v>
       </c>
-      <c r="I43" s="75">
+      <c r="I43" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.65</v>
       </c>
-      <c r="J43" s="76">
+      <c r="J43" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="67">
         <v>43</v>
       </c>
-      <c r="B44" s="74">
+      <c r="B44" s="68">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="54">
         <v>3.2</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="54">
         <v>1.3</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="54">
         <v>0.2</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.8758869952566983</v>
       </c>
-      <c r="H44" s="54">
+      <c r="H44" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>148</v>
       </c>
-      <c r="I44" s="75">
+      <c r="I44" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.85</v>
       </c>
-      <c r="J44" s="76">
+      <c r="J44" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="73">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="67">
         <v>44</v>
       </c>
-      <c r="B45" s="74">
+      <c r="B45" s="68">
         <v>5</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="54">
         <v>3.5</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="54">
         <v>1.6</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="54">
         <v>0.6</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G45" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.2422985673746951</v>
       </c>
-      <c r="H45" s="54">
+      <c r="H45" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>107</v>
       </c>
-      <c r="I45" s="75">
+      <c r="I45" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.85</v>
       </c>
-      <c r="J45" s="76">
+      <c r="J45" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="73">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="67">
         <v>45</v>
       </c>
-      <c r="B46" s="74">
+      <c r="B46" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="54">
         <v>3.8</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="54">
         <v>1.9</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="54">
         <v>0.4</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G46" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1164884084494848</v>
       </c>
-      <c r="H46" s="54">
+      <c r="H46" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>104</v>
       </c>
-      <c r="I46" s="75">
+      <c r="I46" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.9499999999999993</v>
       </c>
-      <c r="J46" s="76">
+      <c r="J46" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="73">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="67">
         <v>46</v>
       </c>
-      <c r="B47" s="74">
+      <c r="B47" s="68">
         <v>4.8</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="54">
         <v>3</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="54">
         <v>1.4</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="54">
         <v>0.3</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G47" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5217183305880666</v>
       </c>
-      <c r="H47" s="54">
+      <c r="H47" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>133</v>
       </c>
-      <c r="I47" s="75">
+      <c r="I47" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.05</v>
       </c>
-      <c r="J47" s="76">
+      <c r="J47" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="73">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="67">
         <v>47</v>
       </c>
-      <c r="B48" s="74">
+      <c r="B48" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="54">
         <v>3.8</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="54">
         <v>1.6</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="54">
         <v>0.2</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="F48" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G48" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4062442660502197</v>
       </c>
-      <c r="H48" s="54">
+      <c r="H48" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>117</v>
       </c>
-      <c r="I48" s="75">
+      <c r="I48" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.45</v>
       </c>
-      <c r="J48" s="76">
+      <c r="J48" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="73">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="67">
         <v>48</v>
       </c>
-      <c r="B49" s="74">
+      <c r="B49" s="68">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="54">
         <v>3.2</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="54">
         <v>1.4</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="54">
         <v>0.2</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G49" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.6868007811651551</v>
       </c>
-      <c r="H49" s="54">
+      <c r="H49" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>143</v>
       </c>
-      <c r="I49" s="75">
+      <c r="I49" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.55</v>
       </c>
-      <c r="J49" s="76">
+      <c r="J49" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="73">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="67">
         <v>49</v>
       </c>
-      <c r="B50" s="74">
+      <c r="B50" s="68">
         <v>5.3</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="54">
         <v>3.7</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D50" s="54">
         <v>1.5</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="54">
         <v>0.2</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G50" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3634060117684275</v>
       </c>
-      <c r="H50" s="54">
+      <c r="H50" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>113</v>
       </c>
-      <c r="I50" s="75">
+      <c r="I50" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.25</v>
       </c>
-      <c r="J50" s="76">
+      <c r="J50" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="73">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="67">
         <v>50</v>
       </c>
-      <c r="B51" s="74">
+      <c r="B51" s="68">
         <v>5</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="54">
         <v>3.3</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="54">
         <v>1.4</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="54">
         <v>0.2</v>
       </c>
-      <c r="F51" s="54" t="s">
+      <c r="F51" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.488911004883902</v>
       </c>
-      <c r="H51" s="54">
+      <c r="H51" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>131</v>
       </c>
-      <c r="I51" s="75">
+      <c r="I51" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>6.2499999999999991</v>
       </c>
-      <c r="J51" s="76">
+      <c r="J51" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="73">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="67">
         <v>51</v>
       </c>
-      <c r="B52" s="74">
+      <c r="B52" s="68">
         <v>7</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <v>3.2</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="54">
         <v>4.7</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E52" s="54">
         <v>1.4</v>
       </c>
-      <c r="F52" s="54" t="s">
+      <c r="F52" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G52" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.81394102980498584</v>
       </c>
-      <c r="H52" s="54">
+      <c r="H52" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>12</v>
       </c>
-      <c r="I52" s="75">
+      <c r="I52" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000006</v>
       </c>
-      <c r="J52" s="76">
+      <c r="J52" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="73">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="67">
         <v>52</v>
       </c>
-      <c r="B53" s="74">
+      <c r="B53" s="68">
         <v>6.4</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="54">
         <v>3.2</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="54">
         <v>4.5</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E53" s="54">
         <v>1.5</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G53" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.67268120235368578</v>
       </c>
-      <c r="H53" s="54">
+      <c r="H53" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>8</v>
       </c>
-      <c r="I53" s="75">
+      <c r="I53" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.1500000000000004</v>
       </c>
-      <c r="J53" s="76">
+      <c r="J53" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="73">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="67">
         <v>53</v>
       </c>
-      <c r="B54" s="74">
+      <c r="B54" s="68">
         <v>6.9</v>
       </c>
-      <c r="C54" s="53">
+      <c r="C54" s="54">
         <v>3.1</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E54" s="54">
         <v>1.5</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G54" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.89582364335844655</v>
       </c>
-      <c r="H54" s="54">
+      <c r="H54" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>18</v>
       </c>
-      <c r="I54" s="75">
+      <c r="I54" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.350000000000001</v>
       </c>
-      <c r="J54" s="76">
+      <c r="J54" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="73">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="67">
         <v>54</v>
       </c>
-      <c r="B55" s="74">
+      <c r="B55" s="68">
         <v>5.5</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D55" s="53">
+      <c r="D55" s="54">
         <v>4</v>
       </c>
-      <c r="E55" s="53">
+      <c r="E55" s="54">
         <v>1.3</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G55" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.300961183125769</v>
       </c>
-      <c r="H55" s="54">
+      <c r="H55" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>52</v>
       </c>
-      <c r="I55" s="75">
+      <c r="I55" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.95</v>
       </c>
-      <c r="J55" s="76">
+      <c r="J55" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="67">
         <v>55</v>
       </c>
-      <c r="B56" s="74">
+      <c r="B56" s="68">
         <v>6.5</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="54">
         <v>2.8</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="54">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="54">
         <v>1.5</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G56" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.54083269131959844</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H56" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>4</v>
       </c>
-      <c r="I56" s="75">
+      <c r="I56" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.75</v>
       </c>
-      <c r="J56" s="76">
+      <c r="J56" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="73">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="67">
         <v>56</v>
       </c>
-      <c r="B57" s="74">
+      <c r="B57" s="68">
         <v>5.7</v>
       </c>
-      <c r="C57" s="53">
+      <c r="C57" s="54">
         <v>2.8</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="54">
         <v>4.5</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="54">
         <v>1.3</v>
       </c>
-      <c r="F57" s="54" t="s">
+      <c r="F57" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G57" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0965856099730655</v>
       </c>
-      <c r="H57" s="54">
+      <c r="H57" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>37</v>
       </c>
-      <c r="I57" s="75">
+      <c r="I57" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="J57" s="76">
+      <c r="J57" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="73">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="67">
         <v>57</v>
       </c>
-      <c r="B58" s="74">
+      <c r="B58" s="68">
         <v>6.3</v>
       </c>
-      <c r="C58" s="53">
+      <c r="C58" s="54">
         <v>3.3</v>
       </c>
-      <c r="D58" s="53">
+      <c r="D58" s="54">
         <v>4.7</v>
       </c>
-      <c r="E58" s="53">
+      <c r="E58" s="54">
         <v>1.6</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G58" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.91241437954473337</v>
       </c>
-      <c r="H58" s="54">
+      <c r="H58" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>21</v>
       </c>
-      <c r="I58" s="75">
+      <c r="I58" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.6500000000000008</v>
       </c>
-      <c r="J58" s="76">
+      <c r="J58" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="73">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="67">
         <v>58</v>
       </c>
-      <c r="B59" s="74">
+      <c r="B59" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="54">
         <v>2.4</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="54">
         <v>3.3</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="54">
         <v>1</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G59" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0621590627301281</v>
       </c>
-      <c r="H59" s="54">
+      <c r="H59" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>90</v>
       </c>
-      <c r="I59" s="75">
+      <c r="I59" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J59" s="76">
+      <c r="J59" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="73">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="67">
         <v>59</v>
       </c>
-      <c r="B60" s="74">
+      <c r="B60" s="68">
         <v>6.6</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="54">
         <v>2.9</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="54">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="54">
         <v>1.3</v>
       </c>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G60" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.56789083458002743</v>
       </c>
-      <c r="H60" s="54">
+      <c r="H60" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>5</v>
       </c>
-      <c r="I60" s="75">
+      <c r="I60" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.9500000000000004</v>
       </c>
-      <c r="J60" s="76">
+      <c r="J60" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="73">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="67">
         <v>60</v>
       </c>
-      <c r="B61" s="74">
+      <c r="B61" s="68">
         <v>5.2</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="54">
         <v>2.7</v>
       </c>
-      <c r="D61" s="53">
+      <c r="D61" s="54">
         <v>3.9</v>
       </c>
-      <c r="E61" s="53">
+      <c r="E61" s="54">
         <v>1.4</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G61" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.517399090549352</v>
       </c>
-      <c r="H61" s="54">
+      <c r="H61" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>66</v>
       </c>
-      <c r="I61" s="75">
+      <c r="I61" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.8499999999999996</v>
       </c>
-      <c r="J61" s="76">
+      <c r="J61" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="73">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="67">
         <v>61</v>
       </c>
-      <c r="B62" s="74">
+      <c r="B62" s="68">
         <v>5</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="54">
         <v>2</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="54">
         <v>3.5</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="54">
         <v>1</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G62" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0155644370746373</v>
       </c>
-      <c r="H62" s="54">
+      <c r="H62" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>87</v>
       </c>
-      <c r="I62" s="75">
+      <c r="I62" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.55</v>
       </c>
-      <c r="J62" s="76">
+      <c r="J62" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="73">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="67">
         <v>62</v>
       </c>
-      <c r="B63" s="74">
+      <c r="B63" s="68">
         <v>5.9</v>
       </c>
-      <c r="C63" s="53">
+      <c r="C63" s="54">
         <v>3</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D63" s="54">
         <v>4.2</v>
       </c>
-      <c r="E63" s="53">
+      <c r="E63" s="54">
         <v>1.5</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G63" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.84409715080670644</v>
       </c>
-      <c r="H63" s="54">
+      <c r="H63" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>15</v>
       </c>
-      <c r="I63" s="75">
+      <c r="I63" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.1500000000000004</v>
       </c>
-      <c r="J63" s="76">
+      <c r="J63" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="67">
         <v>63</v>
       </c>
-      <c r="B64" s="74">
+      <c r="B64" s="68">
         <v>6</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C64" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D64" s="53">
+      <c r="D64" s="54">
         <v>4</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="54">
         <v>1</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G64" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0259142264341596</v>
       </c>
-      <c r="H64" s="54">
+      <c r="H64" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>28</v>
       </c>
-      <c r="I64" s="75">
+      <c r="I64" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.8499999999999996</v>
       </c>
-      <c r="J64" s="76">
+      <c r="J64" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="73">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="67">
         <v>64</v>
       </c>
-      <c r="B65" s="74">
+      <c r="B65" s="68">
         <v>6.1</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="54">
         <v>2.9</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="54">
         <v>4.7</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="54">
         <v>1.4</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G65" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.86746757864487434</v>
       </c>
-      <c r="H65" s="54">
+      <c r="H65" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>17</v>
       </c>
-      <c r="I65" s="75">
+      <c r="I65" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000011</v>
       </c>
-      <c r="J65" s="76">
+      <c r="J65" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="73">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="67">
         <v>65</v>
       </c>
-      <c r="B66" s="74">
+      <c r="B66" s="68">
         <v>5.6</v>
       </c>
-      <c r="C66" s="53">
+      <c r="C66" s="54">
         <v>2.9</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="54">
         <v>3.6</v>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="54">
         <v>1.3</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G66" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2338962679253069</v>
       </c>
-      <c r="H66" s="54">
+      <c r="H66" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>45</v>
       </c>
-      <c r="I66" s="75">
+      <c r="I66" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.95</v>
       </c>
-      <c r="J66" s="76">
+      <c r="J66" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="73">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="67">
         <v>66</v>
       </c>
-      <c r="B67" s="74">
+      <c r="B67" s="68">
         <v>6.7</v>
       </c>
-      <c r="C67" s="53">
+      <c r="C67" s="54">
         <v>3.1</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="54">
         <v>1.4</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G67" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.47169905660283074</v>
       </c>
-      <c r="H67" s="54">
+      <c r="H67" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>3</v>
       </c>
-      <c r="I67" s="75">
+      <c r="I67" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.75000000000000089</v>
       </c>
-      <c r="J67" s="76">
+      <c r="J67" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="73">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="67">
         <v>67</v>
       </c>
-      <c r="B68" s="74">
+      <c r="B68" s="68">
         <v>5.6</v>
       </c>
-      <c r="C68" s="53">
+      <c r="C68" s="54">
         <v>3</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="54">
         <v>4.5</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="54">
         <v>1.5</v>
       </c>
-      <c r="F68" s="54" t="s">
+      <c r="F68" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G68" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.196870920358583</v>
       </c>
-      <c r="H68" s="54">
+      <c r="H68" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>41</v>
       </c>
-      <c r="I68" s="75">
+      <c r="I68" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.7500000000000009</v>
       </c>
-      <c r="J68" s="76">
+      <c r="J68" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="73">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="67">
         <v>68</v>
       </c>
-      <c r="B69" s="74">
+      <c r="B69" s="68">
         <v>5.8</v>
       </c>
-      <c r="C69" s="53">
+      <c r="C69" s="54">
         <v>2.7</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="54">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E69" s="53">
+      <c r="E69" s="54">
         <v>1</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G69" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0307764064044154</v>
       </c>
-      <c r="H69" s="54">
+      <c r="H69" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>29</v>
       </c>
-      <c r="I69" s="75">
+      <c r="I69" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000002</v>
       </c>
-      <c r="J69" s="76">
+      <c r="J69" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="73">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="67">
         <v>69</v>
       </c>
-      <c r="B70" s="74">
+      <c r="B70" s="68">
         <v>6.2</v>
       </c>
-      <c r="C70" s="53">
+      <c r="C70" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="54">
         <v>4.5</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="54">
         <v>1.5</v>
       </c>
-      <c r="F70" s="54" t="s">
+      <c r="F70" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G70" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.84409715080670666</v>
       </c>
-      <c r="H70" s="54">
+      <c r="H70" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>16</v>
       </c>
-      <c r="I70" s="75">
+      <c r="I70" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000002</v>
       </c>
-      <c r="J70" s="76">
+      <c r="J70" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="73">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="67">
         <v>70</v>
       </c>
-      <c r="B71" s="74">
+      <c r="B71" s="68">
         <v>5.6</v>
       </c>
-      <c r="C71" s="53">
+      <c r="C71" s="54">
         <v>2.5</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="54">
         <v>3.9</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G71" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2134661099511601</v>
       </c>
-      <c r="H71" s="54">
+      <c r="H71" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>42</v>
       </c>
-      <c r="I71" s="75">
+      <c r="I71" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="J71" s="76">
+      <c r="J71" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="73">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="67">
         <v>71</v>
       </c>
-      <c r="B72" s="74">
+      <c r="B72" s="68">
         <v>5.9</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C72" s="54">
         <v>3.2</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="54">
         <v>4.8</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="54">
         <v>1.8</v>
       </c>
-      <c r="F72" s="54" t="s">
+      <c r="F72" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.1926860441876563</v>
       </c>
-      <c r="H72" s="54">
+      <c r="H72" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>40</v>
       </c>
-      <c r="I72" s="75">
+      <c r="I72" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.25</v>
       </c>
-      <c r="J72" s="76">
+      <c r="J72" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="67">
         <v>72</v>
       </c>
-      <c r="B73" s="74">
+      <c r="B73" s="68">
         <v>6.1</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="54">
         <v>2.8</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="54">
         <v>4</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="54">
         <v>1.3</v>
       </c>
-      <c r="F73" s="54" t="s">
+      <c r="F73" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G73" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.64226162893325689</v>
       </c>
-      <c r="H73" s="54">
+      <c r="H73" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>7</v>
       </c>
-      <c r="I73" s="75">
+      <c r="I73" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.95</v>
       </c>
-      <c r="J73" s="76">
+      <c r="J73" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="73">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="67">
         <v>73</v>
       </c>
-      <c r="B74" s="74">
+      <c r="B74" s="68">
         <v>6.3</v>
       </c>
-      <c r="C74" s="53">
+      <c r="C74" s="54">
         <v>2.5</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="54">
         <v>1.5</v>
       </c>
-      <c r="F74" s="54" t="s">
+      <c r="F74" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G74" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.92870878105033627</v>
       </c>
-      <c r="H74" s="54">
+      <c r="H74" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>22</v>
       </c>
-      <c r="I74" s="75">
+      <c r="I74" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000011</v>
       </c>
-      <c r="J74" s="76">
+      <c r="J74" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="73">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="67">
         <v>74</v>
       </c>
-      <c r="B75" s="74">
+      <c r="B75" s="68">
         <v>6.1</v>
       </c>
-      <c r="C75" s="53">
+      <c r="C75" s="54">
         <v>2.8</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="54">
         <v>4.7</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="54">
         <v>1.2</v>
       </c>
-      <c r="F75" s="54" t="s">
+      <c r="F75" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G75" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.90138781886599806</v>
       </c>
-      <c r="H75" s="54">
+      <c r="H75" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>19</v>
       </c>
-      <c r="I75" s="75">
+      <c r="I75" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.5500000000000009</v>
       </c>
-      <c r="J75" s="76">
+      <c r="J75" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="73">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="67">
         <v>75</v>
       </c>
-      <c r="B76" s="74">
+      <c r="B76" s="68">
         <v>6.4</v>
       </c>
-      <c r="C76" s="53">
+      <c r="C76" s="54">
         <v>2.9</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="54">
         <v>4.3</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="54">
         <v>1.3</v>
       </c>
-      <c r="F76" s="54" t="s">
+      <c r="F76" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G76" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.43874821936960601</v>
       </c>
-      <c r="H76" s="54">
+      <c r="H76" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>2</v>
       </c>
-      <c r="I76" s="75">
+      <c r="I76" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.84999999999999987</v>
       </c>
-      <c r="J76" s="76">
+      <c r="J76" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="73">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="67">
         <v>76</v>
       </c>
-      <c r="B77" s="74">
+      <c r="B77" s="68">
         <v>6.6</v>
       </c>
-      <c r="C77" s="53">
+      <c r="C77" s="54">
         <v>3</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="54">
         <v>1.4</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G77" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.41533119314590439</v>
       </c>
-      <c r="H77" s="54">
+      <c r="H77" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>1</v>
       </c>
-      <c r="I77" s="75">
+      <c r="I77" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.75000000000000133</v>
       </c>
-      <c r="J77" s="76">
+      <c r="J77" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="73">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="67">
         <v>77</v>
       </c>
-      <c r="B78" s="74">
+      <c r="B78" s="68">
         <v>6.8</v>
       </c>
-      <c r="C78" s="53">
+      <c r="C78" s="54">
         <v>2.8</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="54">
         <v>4.8</v>
       </c>
-      <c r="E78" s="53">
+      <c r="E78" s="54">
         <v>1.4</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G78" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.71589105316381774</v>
       </c>
-      <c r="H78" s="54">
+      <c r="H78" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>11</v>
       </c>
-      <c r="I78" s="75">
+      <c r="I78" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.94999999999999973</v>
       </c>
-      <c r="J78" s="76">
+      <c r="J78" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="73">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="67">
         <v>78</v>
       </c>
-      <c r="B79" s="74">
+      <c r="B79" s="68">
         <v>6.7</v>
       </c>
-      <c r="C79" s="53">
+      <c r="C79" s="54">
         <v>3</v>
       </c>
-      <c r="D79" s="53">
+      <c r="D79" s="54">
         <v>5</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E79" s="54">
         <v>1.7</v>
       </c>
-      <c r="F79" s="54" t="s">
+      <c r="F79" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G79" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.95524865872714027</v>
       </c>
-      <c r="H79" s="54">
+      <c r="H79" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>24</v>
       </c>
-      <c r="I79" s="75">
+      <c r="I79" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.3500000000000003</v>
       </c>
-      <c r="J79" s="76">
+      <c r="J79" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="73">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="67">
         <v>79</v>
       </c>
-      <c r="B80" s="74">
+      <c r="B80" s="68">
         <v>6</v>
       </c>
-      <c r="C80" s="53">
+      <c r="C80" s="54">
         <v>2.9</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="54">
         <v>4.5</v>
       </c>
-      <c r="E80" s="53">
+      <c r="E80" s="54">
         <v>1.5</v>
       </c>
-      <c r="F80" s="54" t="s">
+      <c r="F80" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G80" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.82006097334283656</v>
       </c>
-      <c r="H80" s="54">
+      <c r="H80" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>13</v>
       </c>
-      <c r="I80" s="75">
+      <c r="I80" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.2500000000000004</v>
       </c>
-      <c r="J80" s="76">
+      <c r="J80" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="73">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="67">
         <v>80</v>
       </c>
-      <c r="B81" s="74">
+      <c r="B81" s="68">
         <v>5.7</v>
       </c>
-      <c r="C81" s="53">
+      <c r="C81" s="54">
         <v>2.6</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="54">
         <v>3.5</v>
       </c>
-      <c r="E81" s="53">
+      <c r="E81" s="54">
         <v>1</v>
       </c>
-      <c r="F81" s="54" t="s">
+      <c r="F81" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G81" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2776932339180636</v>
       </c>
-      <c r="H81" s="54">
+      <c r="H81" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>49</v>
       </c>
-      <c r="I81" s="75">
+      <c r="I81" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.2499999999999996</v>
       </c>
-      <c r="J81" s="76">
+      <c r="J81" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="73">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="67">
         <v>81</v>
       </c>
-      <c r="B82" s="74">
+      <c r="B82" s="68">
         <v>5.5</v>
       </c>
-      <c r="C82" s="53">
+      <c r="C82" s="54">
         <v>2.4</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="54">
         <v>3.8</v>
       </c>
-      <c r="E82" s="53">
+      <c r="E82" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G82" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3462912017836262</v>
       </c>
-      <c r="H82" s="54">
+      <c r="H82" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>55</v>
       </c>
-      <c r="I82" s="75">
+      <c r="I82" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.25</v>
       </c>
-      <c r="J82" s="76">
+      <c r="J82" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="73">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="67">
         <v>82</v>
       </c>
-      <c r="B83" s="74">
+      <c r="B83" s="68">
         <v>5.5</v>
       </c>
-      <c r="C83" s="53">
+      <c r="C83" s="54">
         <v>2.4</v>
       </c>
-      <c r="D83" s="53">
+      <c r="D83" s="54">
         <v>3.7</v>
       </c>
-      <c r="E83" s="53">
+      <c r="E83" s="54">
         <v>1</v>
       </c>
-      <c r="F83" s="54" t="s">
+      <c r="F83" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G83" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4044571905188139</v>
       </c>
-      <c r="H83" s="54">
+      <c r="H83" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>58</v>
       </c>
-      <c r="I83" s="75">
+      <c r="I83" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.4499999999999997</v>
       </c>
-      <c r="J83" s="76">
+      <c r="J83" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="73">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="67">
         <v>83</v>
       </c>
-      <c r="B84" s="74">
+      <c r="B84" s="68">
         <v>5.8</v>
       </c>
-      <c r="C84" s="53">
+      <c r="C84" s="54">
         <v>2.7</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D84" s="54">
         <v>3.9</v>
       </c>
-      <c r="E84" s="53">
+      <c r="E84" s="54">
         <v>1.2</v>
       </c>
-      <c r="F84" s="54" t="s">
+      <c r="F84" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G84" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.97082439194738024</v>
       </c>
-      <c r="H84" s="54">
+      <c r="H84" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>26</v>
       </c>
-      <c r="I84" s="75">
+      <c r="I84" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.45</v>
       </c>
-      <c r="J84" s="76">
+      <c r="J84" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="73">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="67">
         <v>84</v>
       </c>
-      <c r="B85" s="74">
+      <c r="B85" s="68">
         <v>6</v>
       </c>
-      <c r="C85" s="53">
+      <c r="C85" s="54">
         <v>2.7</v>
       </c>
-      <c r="D85" s="53">
+      <c r="D85" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E85" s="53">
+      <c r="E85" s="54">
         <v>1.6</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G85" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2257650672131264</v>
       </c>
-      <c r="H85" s="54">
+      <c r="H85" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>44</v>
       </c>
-      <c r="I85" s="75">
+      <c r="I85" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.85</v>
       </c>
-      <c r="J85" s="76">
+      <c r="J85" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="73">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="67">
         <v>85</v>
       </c>
-      <c r="B86" s="74">
+      <c r="B86" s="68">
         <v>5.4</v>
       </c>
-      <c r="C86" s="53">
+      <c r="C86" s="54">
         <v>3</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="54">
         <v>4.5</v>
       </c>
-      <c r="E86" s="53">
+      <c r="E86" s="54">
         <v>1.5</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G86" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.382931668593933</v>
       </c>
-      <c r="H86" s="54">
+      <c r="H86" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>56</v>
       </c>
-      <c r="I86" s="75">
+      <c r="I86" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="J86" s="76">
+      <c r="J86" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="73">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="67">
         <v>86</v>
       </c>
-      <c r="B87" s="74">
+      <c r="B87" s="68">
         <v>6</v>
       </c>
-      <c r="C87" s="53">
+      <c r="C87" s="54">
         <v>3.4</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="54">
         <v>4.5</v>
       </c>
-      <c r="E87" s="53">
+      <c r="E87" s="54">
         <v>1.6</v>
       </c>
-      <c r="F87" s="54" t="s">
+      <c r="F87" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G87" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0404326023342407</v>
       </c>
-      <c r="H87" s="54">
+      <c r="H87" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>31</v>
       </c>
-      <c r="I87" s="75">
+      <c r="I87" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.8500000000000005</v>
       </c>
-      <c r="J87" s="76">
+      <c r="J87" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="73">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="67">
         <v>87</v>
       </c>
-      <c r="B88" s="74">
+      <c r="B88" s="68">
         <v>6.7</v>
       </c>
-      <c r="C88" s="53">
+      <c r="C88" s="54">
         <v>3.1</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="54">
         <v>4.7</v>
       </c>
-      <c r="E88" s="53">
+      <c r="E88" s="54">
         <v>1.5</v>
       </c>
-      <c r="F88" s="54" t="s">
+      <c r="F88" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G88" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.69462219947249071</v>
       </c>
-      <c r="H88" s="54">
+      <c r="H88" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>9</v>
       </c>
-      <c r="I88" s="75">
+      <c r="I88" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>0.95000000000000062</v>
       </c>
-      <c r="J88" s="76">
+      <c r="J88" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="73">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="67">
         <v>88</v>
       </c>
-      <c r="B89" s="74">
+      <c r="B89" s="68">
         <v>6.3</v>
       </c>
-      <c r="C89" s="53">
+      <c r="C89" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E89" s="53">
+      <c r="E89" s="54">
         <v>1.3</v>
       </c>
-      <c r="F89" s="54" t="s">
+      <c r="F89" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G89" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.70178344238091062</v>
       </c>
-      <c r="H89" s="54">
+      <c r="H89" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>10</v>
       </c>
-      <c r="I89" s="75">
+      <c r="I89" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.3500000000000012</v>
       </c>
-      <c r="J89" s="76">
+      <c r="J89" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="73">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="67">
         <v>89</v>
       </c>
-      <c r="B90" s="74">
+      <c r="B90" s="68">
         <v>5.6</v>
       </c>
-      <c r="C90" s="53">
+      <c r="C90" s="54">
         <v>3</v>
       </c>
-      <c r="D90" s="53">
+      <c r="D90" s="54">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="54">
         <v>1.3</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G90" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.1456439237389604</v>
       </c>
-      <c r="H90" s="54">
+      <c r="H90" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>39</v>
       </c>
-      <c r="I90" s="75">
+      <c r="I90" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.5500000000000005</v>
       </c>
-      <c r="J90" s="76">
+      <c r="J90" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="73">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="67">
         <v>90</v>
       </c>
-      <c r="B91" s="74">
+      <c r="B91" s="68">
         <v>5.5</v>
       </c>
-      <c r="C91" s="53">
+      <c r="C91" s="54">
         <v>2.5</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="54">
         <v>4</v>
       </c>
-      <c r="E91" s="53">
+      <c r="E91" s="54">
         <v>1.3</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G91" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2459935794377115</v>
       </c>
-      <c r="H91" s="54">
+      <c r="H91" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>46</v>
       </c>
-      <c r="I91" s="75">
+      <c r="I91" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.7499999999999998</v>
       </c>
-      <c r="J91" s="76">
+      <c r="J91" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="73">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="67">
         <v>91</v>
       </c>
-      <c r="B92" s="74">
+      <c r="B92" s="68">
         <v>5.5</v>
       </c>
-      <c r="C92" s="53">
+      <c r="C92" s="54">
         <v>2.6</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E92" s="53">
+      <c r="E92" s="54">
         <v>1.2</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G92" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.28160056179763</v>
       </c>
-      <c r="H92" s="54">
+      <c r="H92" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>50</v>
       </c>
-      <c r="I92" s="75">
+      <c r="I92" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9500000000000008</v>
       </c>
-      <c r="J92" s="76">
+      <c r="J92" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="73">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="67">
         <v>92</v>
       </c>
-      <c r="B93" s="74">
+      <c r="B93" s="68">
         <v>6.1</v>
       </c>
-      <c r="C93" s="53">
+      <c r="C93" s="54">
         <v>3</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="54">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E93" s="53">
+      <c r="E93" s="54">
         <v>1.4</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G93" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.82613558209291571</v>
       </c>
-      <c r="H93" s="54">
+      <c r="H93" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>14</v>
       </c>
-      <c r="I93" s="75">
+      <c r="I93" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000006</v>
       </c>
-      <c r="J93" s="76">
+      <c r="J93" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="73">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="67">
         <v>93</v>
       </c>
-      <c r="B94" s="74">
+      <c r="B94" s="68">
         <v>5.8</v>
       </c>
-      <c r="C94" s="53">
+      <c r="C94" s="54">
         <v>2.6</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="54">
         <v>4</v>
       </c>
-      <c r="E94" s="53">
+      <c r="E94" s="54">
         <v>1.2</v>
       </c>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G94" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.96566039579139862</v>
       </c>
-      <c r="H94" s="54">
+      <c r="H94" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>25</v>
       </c>
-      <c r="I94" s="75">
+      <c r="I94" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.45</v>
       </c>
-      <c r="J94" s="76">
+      <c r="J94" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="73">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="67">
         <v>94</v>
       </c>
-      <c r="B95" s="74">
+      <c r="B95" s="68">
         <v>5</v>
       </c>
-      <c r="C95" s="53">
+      <c r="C95" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="54">
         <v>3.3</v>
       </c>
-      <c r="E95" s="53">
+      <c r="E95" s="54">
         <v>1</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G95" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9956202043475106</v>
       </c>
-      <c r="H95" s="54">
+      <c r="H95" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>85</v>
       </c>
-      <c r="I95" s="75">
+      <c r="I95" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.45</v>
       </c>
-      <c r="J95" s="76">
+      <c r="J95" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="73">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="67">
         <v>95</v>
       </c>
-      <c r="B96" s="74">
+      <c r="B96" s="68">
         <v>5.6</v>
       </c>
-      <c r="C96" s="53">
+      <c r="C96" s="54">
         <v>2.7</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="54">
         <v>4.2</v>
       </c>
-      <c r="E96" s="53">
+      <c r="E96" s="54">
         <v>1.3</v>
       </c>
-      <c r="F96" s="54" t="s">
+      <c r="F96" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G96" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.123610252712212</v>
       </c>
-      <c r="H96" s="54">
+      <c r="H96" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>38</v>
       </c>
-      <c r="I96" s="75">
+      <c r="I96" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000008</v>
       </c>
-      <c r="J96" s="76">
+      <c r="J96" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="73">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="67">
         <v>96</v>
       </c>
-      <c r="B97" s="74">
+      <c r="B97" s="68">
         <v>5.7</v>
       </c>
-      <c r="C97" s="53">
+      <c r="C97" s="54">
         <v>3</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="54">
         <v>4.2</v>
       </c>
-      <c r="E97" s="53">
+      <c r="E97" s="54">
         <v>1.2</v>
       </c>
-      <c r="F97" s="54" t="s">
+      <c r="F97" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G97" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0781929326423914</v>
       </c>
-      <c r="H97" s="54">
+      <c r="H97" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>34</v>
       </c>
-      <c r="I97" s="75">
+      <c r="I97" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.6500000000000006</v>
       </c>
-      <c r="J97" s="76">
+      <c r="J97" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="73">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="67">
         <v>97</v>
       </c>
-      <c r="B98" s="74">
+      <c r="B98" s="68">
         <v>5.7</v>
       </c>
-      <c r="C98" s="53">
+      <c r="C98" s="54">
         <v>2.9</v>
       </c>
-      <c r="D98" s="53">
+      <c r="D98" s="54">
         <v>4.2</v>
       </c>
-      <c r="E98" s="53">
+      <c r="E98" s="54">
         <v>1.3</v>
       </c>
-      <c r="F98" s="54" t="s">
+      <c r="F98" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G98" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0356157588603989</v>
       </c>
-      <c r="H98" s="54">
+      <c r="H98" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>30</v>
       </c>
-      <c r="I98" s="75">
+      <c r="I98" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000004</v>
       </c>
-      <c r="J98" s="76">
+      <c r="J98" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="73">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="67">
         <v>98</v>
       </c>
-      <c r="B99" s="74">
+      <c r="B99" s="68">
         <v>6.2</v>
       </c>
-      <c r="C99" s="53">
+      <c r="C99" s="54">
         <v>2.9</v>
       </c>
-      <c r="D99" s="53">
+      <c r="D99" s="54">
         <v>4.3</v>
       </c>
-      <c r="E99" s="53">
+      <c r="E99" s="54">
         <v>1.3</v>
       </c>
-      <c r="F99" s="54" t="s">
+      <c r="F99" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G99" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.59371710435189584</v>
       </c>
-      <c r="H99" s="54">
+      <c r="H99" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>6</v>
       </c>
-      <c r="I99" s="75">
+      <c r="I99" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.05</v>
       </c>
-      <c r="J99" s="76">
+      <c r="J99" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="73">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="67">
         <v>99</v>
       </c>
-      <c r="B100" s="74">
+      <c r="B100" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C100" s="53">
+      <c r="C100" s="54">
         <v>2.5</v>
       </c>
-      <c r="D100" s="53">
+      <c r="D100" s="54">
         <v>3</v>
       </c>
-      <c r="E100" s="53">
+      <c r="E100" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F100" s="54" t="s">
+      <c r="F100" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G100" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9981241202688089</v>
       </c>
-      <c r="H100" s="54">
+      <c r="H100" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>86</v>
       </c>
-      <c r="I100" s="75">
+      <c r="I100" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.35</v>
       </c>
-      <c r="J100" s="76">
+      <c r="J100" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="73">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="67">
         <v>100</v>
       </c>
-      <c r="B101" s="74">
+      <c r="B101" s="68">
         <v>5.7</v>
       </c>
-      <c r="C101" s="53">
+      <c r="C101" s="54">
         <v>2.8</v>
       </c>
-      <c r="D101" s="53">
+      <c r="D101" s="54">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E101" s="53">
+      <c r="E101" s="54">
         <v>1.3</v>
       </c>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G101" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0210288928331068</v>
       </c>
-      <c r="H101" s="54">
+      <c r="H101" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>27</v>
       </c>
-      <c r="I101" s="75">
+      <c r="I101" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.2499999999999998</v>
       </c>
-      <c r="J101" s="76">
+      <c r="J101" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="73">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="67">
         <v>101</v>
       </c>
-      <c r="B102" s="74">
+      <c r="B102" s="68">
         <v>6.3</v>
       </c>
-      <c r="C102" s="53">
+      <c r="C102" s="54">
         <v>3.3</v>
       </c>
-      <c r="D102" s="53">
+      <c r="D102" s="54">
         <v>6</v>
       </c>
-      <c r="E102" s="53">
+      <c r="E102" s="54">
         <v>2.5</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G102" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.2522211259110421</v>
       </c>
-      <c r="H102" s="54">
+      <c r="H102" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>92</v>
       </c>
-      <c r="I102" s="75">
+      <c r="I102" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.8500000000000005</v>
       </c>
-      <c r="J102" s="76">
+      <c r="J102" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="73">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="67">
         <v>102</v>
       </c>
-      <c r="B103" s="74">
+      <c r="B103" s="68">
         <v>5.8</v>
       </c>
-      <c r="C103" s="53">
+      <c r="C103" s="54">
         <v>2.7</v>
       </c>
-      <c r="D103" s="53">
+      <c r="D103" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E103" s="53">
+      <c r="E103" s="54">
         <v>1.9</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G103" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4044571905188141</v>
       </c>
-      <c r="H103" s="54">
+      <c r="H103" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>59</v>
       </c>
-      <c r="I103" s="75">
+      <c r="I103" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.35</v>
       </c>
-      <c r="J103" s="76">
+      <c r="J103" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="73">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="67">
         <v>103</v>
       </c>
-      <c r="B104" s="74">
+      <c r="B104" s="68">
         <v>7.1</v>
       </c>
-      <c r="C104" s="53">
+      <c r="C104" s="54">
         <v>3</v>
       </c>
-      <c r="D104" s="53">
+      <c r="D104" s="54">
         <v>5.9</v>
       </c>
-      <c r="E104" s="53">
+      <c r="E104" s="54">
         <v>2.1</v>
       </c>
-      <c r="F104" s="54" t="s">
+      <c r="F104" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G104" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9551214796017158</v>
       </c>
-      <c r="H104" s="54">
+      <c r="H104" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>83</v>
       </c>
-      <c r="I104" s="75">
+      <c r="I104" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.0500000000000003</v>
       </c>
-      <c r="J104" s="76">
+      <c r="J104" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="73">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="67">
         <v>104</v>
       </c>
-      <c r="B105" s="74">
+      <c r="B105" s="68">
         <v>6.3</v>
       </c>
-      <c r="C105" s="53">
+      <c r="C105" s="54">
         <v>2.9</v>
       </c>
-      <c r="D105" s="53">
+      <c r="D105" s="54">
         <v>5.6</v>
       </c>
-      <c r="E105" s="53">
+      <c r="E105" s="54">
         <v>1.8</v>
       </c>
-      <c r="F105" s="54" t="s">
+      <c r="F105" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G105" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5882380174268591</v>
       </c>
-      <c r="H105" s="54">
+      <c r="H105" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>69</v>
       </c>
-      <c r="I105" s="75">
+      <c r="I105" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.3500000000000005</v>
       </c>
-      <c r="J105" s="76">
+      <c r="J105" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="73">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="67">
         <v>105</v>
       </c>
-      <c r="B106" s="74">
+      <c r="B106" s="68">
         <v>6.5</v>
       </c>
-      <c r="C106" s="53">
+      <c r="C106" s="54">
         <v>3</v>
       </c>
-      <c r="D106" s="53">
+      <c r="D106" s="54">
         <v>5.8</v>
       </c>
-      <c r="E106" s="53">
+      <c r="E106" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F106" s="54" t="s">
+      <c r="F106" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G106" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.8661457606521525</v>
       </c>
-      <c r="H106" s="54">
+      <c r="H106" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>80</v>
       </c>
-      <c r="I106" s="75">
+      <c r="I106" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.8500000000000005</v>
       </c>
-      <c r="J106" s="76">
+      <c r="J106" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="73">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="67">
         <v>106</v>
       </c>
-      <c r="B107" s="74">
+      <c r="B107" s="68">
         <v>7.6</v>
       </c>
-      <c r="C107" s="53">
+      <c r="C107" s="54">
         <v>3</v>
       </c>
-      <c r="D107" s="53">
+      <c r="D107" s="54">
         <v>6.6</v>
       </c>
-      <c r="E107" s="53">
+      <c r="E107" s="54">
         <v>2.1</v>
       </c>
-      <c r="F107" s="54" t="s">
+      <c r="F107" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G107" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.7354158733179856</v>
       </c>
-      <c r="H107" s="54">
+      <c r="H107" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>96</v>
       </c>
-      <c r="I107" s="75">
+      <c r="I107" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>4.25</v>
       </c>
-      <c r="J107" s="76">
+      <c r="J107" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="73">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="67">
         <v>107</v>
       </c>
-      <c r="B108" s="74">
+      <c r="B108" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C108" s="53">
+      <c r="C108" s="54">
         <v>2.5</v>
       </c>
-      <c r="D108" s="53">
+      <c r="D108" s="54">
         <v>4.5</v>
       </c>
-      <c r="E108" s="53">
+      <c r="E108" s="54">
         <v>1.7</v>
       </c>
-      <c r="F108" s="54" t="s">
+      <c r="F108" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G108" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.8714967272212899</v>
       </c>
-      <c r="H108" s="54">
+      <c r="H108" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>81</v>
       </c>
-      <c r="I108" s="75">
+      <c r="I108" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.6500000000000004</v>
       </c>
-      <c r="J108" s="76">
+      <c r="J108" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="73">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="67">
         <v>108</v>
       </c>
-      <c r="B109" s="74">
+      <c r="B109" s="68">
         <v>7.3</v>
       </c>
-      <c r="C109" s="53">
+      <c r="C109" s="54">
         <v>2.9</v>
       </c>
-      <c r="D109" s="53">
+      <c r="D109" s="54">
         <v>6.3</v>
       </c>
-      <c r="E109" s="53">
+      <c r="E109" s="54">
         <v>1.8</v>
       </c>
-      <c r="F109" s="54" t="s">
+      <c r="F109" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G109" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.3048861143232218</v>
       </c>
-      <c r="H109" s="54">
+      <c r="H109" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>93</v>
       </c>
-      <c r="I109" s="75">
+      <c r="I109" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.25</v>
       </c>
-      <c r="J109" s="76">
+      <c r="J109" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="73">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="67">
         <v>109</v>
       </c>
-      <c r="B110" s="74">
+      <c r="B110" s="68">
         <v>6.7</v>
       </c>
-      <c r="C110" s="53">
+      <c r="C110" s="54">
         <v>2.5</v>
       </c>
-      <c r="D110" s="53">
+      <c r="D110" s="54">
         <v>5.8</v>
       </c>
-      <c r="E110" s="53">
+      <c r="E110" s="54">
         <v>1.8</v>
       </c>
-      <c r="F110" s="54" t="s">
+      <c r="F110" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G110" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7442763542512409</v>
       </c>
-      <c r="H110" s="54">
+      <c r="H110" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>75</v>
       </c>
-      <c r="I110" s="75">
+      <c r="I110" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.25</v>
       </c>
-      <c r="J110" s="76">
+      <c r="J110" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="73">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="67">
         <v>110</v>
       </c>
-      <c r="B111" s="74">
+      <c r="B111" s="68">
         <v>7.2</v>
       </c>
-      <c r="C111" s="53">
+      <c r="C111" s="54">
         <v>3.6</v>
       </c>
-      <c r="D111" s="53">
+      <c r="D111" s="54">
         <v>6.1</v>
       </c>
-      <c r="E111" s="53">
+      <c r="E111" s="54">
         <v>2.5</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G111" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.4438698819699876</v>
       </c>
-      <c r="H111" s="54">
+      <c r="H111" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>95</v>
       </c>
-      <c r="I111" s="75">
+      <c r="I111" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>4.3499999999999996</v>
       </c>
-      <c r="J111" s="76">
+      <c r="J111" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="73">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="67">
         <v>111</v>
       </c>
-      <c r="B112" s="74">
+      <c r="B112" s="68">
         <v>6.5</v>
       </c>
-      <c r="C112" s="53">
+      <c r="C112" s="54">
         <v>3.2</v>
       </c>
-      <c r="D112" s="53">
+      <c r="D112" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E112" s="53">
+      <c r="E112" s="54">
         <v>2</v>
       </c>
-      <c r="F112" s="54" t="s">
+      <c r="F112" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G112" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2216791722870617</v>
       </c>
-      <c r="H112" s="54">
+      <c r="H112" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>43</v>
       </c>
-      <c r="I112" s="75">
+      <c r="I112" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.1500000000000004</v>
       </c>
-      <c r="J112" s="76">
+      <c r="J112" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="73">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="67">
         <v>112</v>
       </c>
-      <c r="B113" s="74">
+      <c r="B113" s="68">
         <v>6.4</v>
       </c>
-      <c r="C113" s="53">
+      <c r="C113" s="54">
         <v>2.7</v>
       </c>
-      <c r="D113" s="53">
+      <c r="D113" s="54">
         <v>5.3</v>
       </c>
-      <c r="E113" s="53">
+      <c r="E113" s="54">
         <v>1.9</v>
       </c>
-      <c r="F113" s="54" t="s">
+      <c r="F113" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G113" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3009611831257688</v>
       </c>
-      <c r="H113" s="54">
+      <c r="H113" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>51</v>
       </c>
-      <c r="I113" s="75">
+      <c r="I113" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9499999999999997</v>
       </c>
-      <c r="J113" s="76">
+      <c r="J113" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="73">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="67">
         <v>113</v>
       </c>
-      <c r="B114" s="74">
+      <c r="B114" s="68">
         <v>6.8</v>
       </c>
-      <c r="C114" s="53">
+      <c r="C114" s="54">
         <v>3</v>
       </c>
-      <c r="D114" s="53">
+      <c r="D114" s="54">
         <v>5.5</v>
       </c>
-      <c r="E114" s="53">
+      <c r="E114" s="54">
         <v>2.1</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G114" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5467708298258023</v>
       </c>
-      <c r="H114" s="54">
+      <c r="H114" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>68</v>
       </c>
-      <c r="I114" s="75">
+      <c r="I114" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.35</v>
       </c>
-      <c r="J114" s="76">
+      <c r="J114" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="73">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="67">
         <v>114</v>
       </c>
-      <c r="B115" s="74">
+      <c r="B115" s="68">
         <v>5.7</v>
       </c>
-      <c r="C115" s="53">
+      <c r="C115" s="54">
         <v>2.5</v>
       </c>
-      <c r="D115" s="53">
+      <c r="D115" s="54">
         <v>5</v>
       </c>
-      <c r="E115" s="53">
+      <c r="E115" s="54">
         <v>2</v>
       </c>
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G115" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4568802284333466</v>
       </c>
-      <c r="H115" s="54">
+      <c r="H115" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>62</v>
       </c>
-      <c r="I115" s="75">
+      <c r="I115" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.6500000000000004</v>
       </c>
-      <c r="J115" s="76">
+      <c r="J115" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="73">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="67">
         <v>115</v>
       </c>
-      <c r="B116" s="74">
+      <c r="B116" s="68">
         <v>5.8</v>
       </c>
-      <c r="C116" s="53">
+      <c r="C116" s="54">
         <v>2.8</v>
       </c>
-      <c r="D116" s="53">
+      <c r="D116" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E116" s="53">
+      <c r="E116" s="54">
         <v>2.4</v>
       </c>
-      <c r="F116" s="54" t="s">
+      <c r="F116" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G116" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.6194134740701649</v>
       </c>
-      <c r="H116" s="54">
+      <c r="H116" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>70</v>
       </c>
-      <c r="I116" s="75">
+      <c r="I116" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.85</v>
       </c>
-      <c r="J116" s="76">
+      <c r="J116" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="73">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="67">
         <v>116</v>
       </c>
-      <c r="B117" s="74">
+      <c r="B117" s="68">
         <v>6.4</v>
       </c>
-      <c r="C117" s="53">
+      <c r="C117" s="54">
         <v>3.2</v>
       </c>
-      <c r="D117" s="53">
+      <c r="D117" s="54">
         <v>5.3</v>
       </c>
-      <c r="E117" s="53">
+      <c r="E117" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G117" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5402921800749363</v>
       </c>
-      <c r="H117" s="54">
+      <c r="H117" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>67</v>
       </c>
-      <c r="I117" s="75">
+      <c r="I117" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.75</v>
       </c>
-      <c r="J117" s="76">
+      <c r="J117" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="73">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="67">
         <v>117</v>
       </c>
-      <c r="B118" s="74">
+      <c r="B118" s="68">
         <v>6.5</v>
       </c>
-      <c r="C118" s="53">
+      <c r="C118" s="54">
         <v>3</v>
       </c>
-      <c r="D118" s="53">
+      <c r="D118" s="54">
         <v>5.5</v>
       </c>
-      <c r="E118" s="53">
+      <c r="E118" s="54">
         <v>1.8</v>
       </c>
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G118" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4671400751121213</v>
       </c>
-      <c r="H118" s="54">
+      <c r="H118" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>63</v>
       </c>
-      <c r="I118" s="75">
+      <c r="I118" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.1500000000000004</v>
       </c>
-      <c r="J118" s="76">
+      <c r="J118" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="73">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="67">
         <v>118</v>
       </c>
-      <c r="B119" s="74">
+      <c r="B119" s="68">
         <v>7.7</v>
       </c>
-      <c r="C119" s="53">
+      <c r="C119" s="54">
         <v>3.8</v>
       </c>
-      <c r="D119" s="53">
+      <c r="D119" s="54">
         <v>6.7</v>
       </c>
-      <c r="E119" s="53">
+      <c r="E119" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F119" s="54" t="s">
+      <c r="F119" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G119" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0581857366746061</v>
       </c>
-      <c r="H119" s="54">
+      <c r="H119" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>100</v>
       </c>
-      <c r="I119" s="75">
+      <c r="I119" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.3500000000000005</v>
       </c>
-      <c r="J119" s="76">
+      <c r="J119" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="73">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="67">
         <v>119</v>
       </c>
-      <c r="B120" s="74">
+      <c r="B120" s="68">
         <v>7.7</v>
       </c>
-      <c r="C120" s="53">
+      <c r="C120" s="54">
         <v>2.6</v>
       </c>
-      <c r="D120" s="53">
+      <c r="D120" s="54">
         <v>6.9</v>
       </c>
-      <c r="E120" s="53">
+      <c r="E120" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F120" s="54" t="s">
+      <c r="F120" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G120" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0826125283596713</v>
       </c>
-      <c r="H120" s="54">
+      <c r="H120" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>101</v>
       </c>
-      <c r="I120" s="75">
+      <c r="I120" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>4.75</v>
       </c>
-      <c r="J120" s="76">
+      <c r="J120" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="73">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="67">
         <v>120</v>
       </c>
-      <c r="B121" s="74">
+      <c r="B121" s="68">
         <v>6</v>
       </c>
-      <c r="C121" s="53">
+      <c r="C121" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D121" s="53">
+      <c r="D121" s="54">
         <v>5</v>
       </c>
-      <c r="E121" s="53">
+      <c r="E121" s="54">
         <v>1.5</v>
       </c>
-      <c r="F121" s="54" t="s">
+      <c r="F121" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G121" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2658988901172166</v>
       </c>
-      <c r="H121" s="54">
+      <c r="H121" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>48</v>
       </c>
-      <c r="I121" s="75">
+      <c r="I121" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.1500000000000004</v>
       </c>
-      <c r="J121" s="76">
+      <c r="J121" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="73">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="67">
         <v>121</v>
       </c>
-      <c r="B122" s="74">
+      <c r="B122" s="68">
         <v>6.9</v>
       </c>
-      <c r="C122" s="53">
+      <c r="C122" s="54">
         <v>3.2</v>
       </c>
-      <c r="D122" s="53">
+      <c r="D122" s="54">
         <v>5.7</v>
       </c>
-      <c r="E122" s="53">
+      <c r="E122" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G122" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.8553975315279476</v>
       </c>
-      <c r="H122" s="54">
+      <c r="H122" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>79</v>
       </c>
-      <c r="I122" s="75">
+      <c r="I122" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.0500000000000007</v>
       </c>
-      <c r="J122" s="76">
+      <c r="J122" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="73">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="67">
         <v>122</v>
       </c>
-      <c r="B123" s="74">
+      <c r="B123" s="68">
         <v>5.6</v>
       </c>
-      <c r="C123" s="53">
+      <c r="C123" s="54">
         <v>2.8</v>
       </c>
-      <c r="D123" s="53">
+      <c r="D123" s="54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E123" s="53">
+      <c r="E123" s="54">
         <v>2</v>
       </c>
-      <c r="F123" s="54" t="s">
+      <c r="F123" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G123" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4500000000000008</v>
       </c>
-      <c r="H123" s="54">
+      <c r="H123" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>61</v>
       </c>
-      <c r="I123" s="75">
+      <c r="I123" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.4500000000000011</v>
       </c>
-      <c r="J123" s="76">
+      <c r="J123" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="73">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="67">
         <v>123</v>
       </c>
-      <c r="B124" s="74">
+      <c r="B124" s="68">
         <v>7.7</v>
       </c>
-      <c r="C124" s="53">
+      <c r="C124" s="54">
         <v>2.8</v>
       </c>
-      <c r="D124" s="53">
+      <c r="D124" s="54">
         <v>6.7</v>
       </c>
-      <c r="E124" s="53">
+      <c r="E124" s="54">
         <v>2</v>
       </c>
-      <c r="F124" s="54" t="s">
+      <c r="F124" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G124" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.8306359709436326</v>
       </c>
-      <c r="H124" s="54">
+      <c r="H124" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>97</v>
       </c>
-      <c r="I124" s="75">
+      <c r="I124" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>4.1500000000000004</v>
       </c>
-      <c r="J124" s="76">
+      <c r="J124" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="73">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="67">
         <v>124</v>
       </c>
-      <c r="B125" s="74">
+      <c r="B125" s="68">
         <v>6.3</v>
       </c>
-      <c r="C125" s="53">
+      <c r="C125" s="54">
         <v>2.7</v>
       </c>
-      <c r="D125" s="53">
+      <c r="D125" s="54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E125" s="53">
+      <c r="E125" s="54">
         <v>1.8</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G125" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.94472218138455999</v>
       </c>
-      <c r="H125" s="54">
+      <c r="H125" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>23</v>
       </c>
-      <c r="I125" s="75">
+      <c r="I125" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.5500000000000009</v>
       </c>
-      <c r="J125" s="76">
+      <c r="J125" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="73">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="67">
         <v>125</v>
       </c>
-      <c r="B126" s="74">
+      <c r="B126" s="68">
         <v>6.7</v>
       </c>
-      <c r="C126" s="53">
+      <c r="C126" s="54">
         <v>3.3</v>
       </c>
-      <c r="D126" s="53">
+      <c r="D126" s="54">
         <v>5.7</v>
       </c>
-      <c r="E126" s="53">
+      <c r="E126" s="54">
         <v>2.1</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G126" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7951323071016247</v>
       </c>
-      <c r="H126" s="54">
+      <c r="H126" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>78</v>
       </c>
-      <c r="I126" s="75">
+      <c r="I126" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.7500000000000004</v>
       </c>
-      <c r="J126" s="76">
+      <c r="J126" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="73">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="67">
         <v>126</v>
       </c>
-      <c r="B127" s="74">
+      <c r="B127" s="68">
         <v>7.2</v>
       </c>
-      <c r="C127" s="53">
+      <c r="C127" s="54">
         <v>3.2</v>
       </c>
-      <c r="D127" s="53">
+      <c r="D127" s="54">
         <v>6</v>
       </c>
-      <c r="E127" s="53">
+      <c r="E127" s="54">
         <v>1.8</v>
       </c>
-      <c r="F127" s="54" t="s">
+      <c r="F127" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G127" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0377683872314836</v>
       </c>
-      <c r="H127" s="54">
+      <c r="H127" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>89</v>
       </c>
-      <c r="I127" s="75">
+      <c r="I127" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="J127" s="76">
+      <c r="J127" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="73">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="67">
         <v>127</v>
       </c>
-      <c r="B128" s="74">
+      <c r="B128" s="68">
         <v>6.2</v>
       </c>
-      <c r="C128" s="53">
+      <c r="C128" s="54">
         <v>2.8</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="54">
         <v>4.8</v>
       </c>
-      <c r="E128" s="53">
+      <c r="E128" s="54">
         <v>1.8</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G128" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.91241437954473303</v>
       </c>
-      <c r="H128" s="54">
+      <c r="H128" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>20</v>
       </c>
-      <c r="I128" s="75">
+      <c r="I128" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.55</v>
       </c>
-      <c r="J128" s="76">
+      <c r="J128" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="73">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="67">
         <v>128</v>
       </c>
-      <c r="B129" s="74">
+      <c r="B129" s="68">
         <v>6.1</v>
       </c>
-      <c r="C129" s="53">
+      <c r="C129" s="54">
         <v>3</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E129" s="53">
+      <c r="E129" s="54">
         <v>1.8</v>
       </c>
-      <c r="F129" s="54" t="s">
+      <c r="F129" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G129" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0735455276791952</v>
       </c>
-      <c r="H129" s="54">
+      <c r="H129" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>33</v>
       </c>
-      <c r="I129" s="75">
+      <c r="I129" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9500000000000013</v>
       </c>
-      <c r="J129" s="76">
+      <c r="J129" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="73">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="67">
         <v>129</v>
       </c>
-      <c r="B130" s="74">
+      <c r="B130" s="68">
         <v>6.4</v>
       </c>
-      <c r="C130" s="53">
+      <c r="C130" s="54">
         <v>2.8</v>
       </c>
-      <c r="D130" s="53">
+      <c r="D130" s="54">
         <v>5.6</v>
       </c>
-      <c r="E130" s="53">
+      <c r="E130" s="54">
         <v>2.1</v>
       </c>
-      <c r="F130" s="54" t="s">
+      <c r="F130" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G130" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.6439282222773595</v>
       </c>
-      <c r="H130" s="54">
+      <c r="H130" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>72</v>
       </c>
-      <c r="I130" s="75">
+      <c r="I130" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.4499999999999997</v>
       </c>
-      <c r="J130" s="76">
+      <c r="J130" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="73">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="67">
         <v>130</v>
       </c>
-      <c r="B131" s="74">
+      <c r="B131" s="68">
         <v>7.2</v>
       </c>
-      <c r="C131" s="53">
+      <c r="C131" s="54">
         <v>3</v>
       </c>
-      <c r="D131" s="53">
+      <c r="D131" s="54">
         <v>5.8</v>
       </c>
-      <c r="E131" s="53">
+      <c r="E131" s="54">
         <v>1.6</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G131" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7923448328934923</v>
       </c>
-      <c r="H131" s="54">
+      <c r="H131" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>77</v>
       </c>
-      <c r="I131" s="75">
+      <c r="I131" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.5500000000000003</v>
       </c>
-      <c r="J131" s="76">
+      <c r="J131" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="73">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="67">
         <v>131</v>
       </c>
-      <c r="B132" s="74">
+      <c r="B132" s="68">
         <v>7.4</v>
       </c>
-      <c r="C132" s="53">
+      <c r="C132" s="54">
         <v>2.8</v>
       </c>
-      <c r="D132" s="53">
+      <c r="D132" s="54">
         <v>6.1</v>
       </c>
-      <c r="E132" s="53">
+      <c r="E132" s="54">
         <v>1.9</v>
       </c>
-      <c r="F132" s="54" t="s">
+      <c r="F132" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G132" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.1569654610122995</v>
       </c>
-      <c r="H132" s="54">
+      <c r="H132" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>91</v>
       </c>
-      <c r="I132" s="75">
+      <c r="I132" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.15</v>
       </c>
-      <c r="J132" s="76">
+      <c r="J132" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="73">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="67">
         <v>132</v>
       </c>
-      <c r="B133" s="74">
+      <c r="B133" s="68">
         <v>7.9</v>
       </c>
-      <c r="C133" s="53">
+      <c r="C133" s="54">
         <v>3.8</v>
       </c>
-      <c r="D133" s="53">
+      <c r="D133" s="54">
         <v>6.4</v>
       </c>
-      <c r="E133" s="53">
+      <c r="E133" s="54">
         <v>2</v>
       </c>
-      <c r="F133" s="54" t="s">
+      <c r="F133" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G133" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.8429737951659004</v>
       </c>
-      <c r="H133" s="54">
+      <c r="H133" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>98</v>
       </c>
-      <c r="I133" s="75">
+      <c r="I133" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>5.0500000000000007</v>
       </c>
-      <c r="J133" s="76">
+      <c r="J133" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="73">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="67">
         <v>133</v>
       </c>
-      <c r="B134" s="74">
+      <c r="B134" s="68">
         <v>6.4</v>
       </c>
-      <c r="C134" s="53">
+      <c r="C134" s="54">
         <v>2.8</v>
       </c>
-      <c r="D134" s="53">
+      <c r="D134" s="54">
         <v>5.6</v>
       </c>
-      <c r="E134" s="53">
+      <c r="E134" s="54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G134" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.6830032679706834</v>
       </c>
-      <c r="H134" s="54">
+      <c r="H134" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>73</v>
       </c>
-      <c r="I134" s="75">
+      <c r="I134" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="J134" s="76">
+      <c r="J134" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="73">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="67">
         <v>134</v>
       </c>
-      <c r="B135" s="74">
+      <c r="B135" s="68">
         <v>6.3</v>
       </c>
-      <c r="C135" s="53">
+      <c r="C135" s="54">
         <v>2.8</v>
       </c>
-      <c r="D135" s="53">
+      <c r="D135" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E135" s="53">
+      <c r="E135" s="54">
         <v>1.5</v>
       </c>
-      <c r="F135" s="54" t="s">
+      <c r="F135" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G135" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0781929326423914</v>
       </c>
-      <c r="H135" s="54">
+      <c r="H135" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>34</v>
       </c>
-      <c r="I135" s="75">
+      <c r="I135" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.4500000000000002</v>
       </c>
-      <c r="J135" s="76">
+      <c r="J135" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="73">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="67">
         <v>135</v>
       </c>
-      <c r="B136" s="74">
+      <c r="B136" s="68">
         <v>6.1</v>
       </c>
-      <c r="C136" s="53">
+      <c r="C136" s="54">
         <v>2.6</v>
       </c>
-      <c r="D136" s="53">
+      <c r="D136" s="54">
         <v>5.6</v>
       </c>
-      <c r="E136" s="53">
+      <c r="E136" s="54">
         <v>1.4</v>
       </c>
-      <c r="F136" s="54" t="s">
+      <c r="F136" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G136" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.625576820700886</v>
       </c>
-      <c r="H136" s="54">
+      <c r="H136" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>71</v>
       </c>
-      <c r="I136" s="75">
+      <c r="I136" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.3500000000000005</v>
       </c>
-      <c r="J136" s="76">
+      <c r="J136" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="73">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="67">
         <v>136</v>
       </c>
-      <c r="B137" s="74">
+      <c r="B137" s="68">
         <v>7.7</v>
       </c>
-      <c r="C137" s="53">
+      <c r="C137" s="54">
         <v>3</v>
       </c>
-      <c r="D137" s="53">
+      <c r="D137" s="54">
         <v>6.1</v>
       </c>
-      <c r="E137" s="53">
+      <c r="E137" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F137" s="54" t="s">
+      <c r="F137" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G137" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.3879907872519106</v>
       </c>
-      <c r="H137" s="54">
+      <c r="H137" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>94</v>
       </c>
-      <c r="I137" s="75">
+      <c r="I137" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>4.05</v>
       </c>
-      <c r="J137" s="76">
+      <c r="J137" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="73">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="67">
         <v>137</v>
       </c>
-      <c r="B138" s="74">
+      <c r="B138" s="68">
         <v>6.3</v>
       </c>
-      <c r="C138" s="53">
+      <c r="C138" s="54">
         <v>3.4</v>
       </c>
-      <c r="D138" s="53">
+      <c r="D138" s="54">
         <v>5.6</v>
       </c>
-      <c r="E138" s="53">
+      <c r="E138" s="54">
         <v>2.4</v>
       </c>
-      <c r="F138" s="54" t="s">
+      <c r="F138" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G138" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9085334683992314</v>
       </c>
-      <c r="H138" s="54">
+      <c r="H138" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>82</v>
       </c>
-      <c r="I138" s="75">
+      <c r="I138" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.45</v>
       </c>
-      <c r="J138" s="76">
+      <c r="J138" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
@@ -13263,39 +13213,39 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="73">
+      <c r="A139" s="67">
         <v>138</v>
       </c>
-      <c r="B139" s="74">
+      <c r="B139" s="68">
         <v>6.4</v>
       </c>
-      <c r="C139" s="53">
+      <c r="C139" s="54">
         <v>3.1</v>
       </c>
-      <c r="D139" s="53">
+      <c r="D139" s="54">
         <v>5.5</v>
       </c>
-      <c r="E139" s="53">
+      <c r="E139" s="54">
         <v>1.8</v>
       </c>
-      <c r="F139" s="54" t="s">
+      <c r="F139" s="81" t="s">
         <v>63</v>
       </c>
       <c r="G139" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5041608956491328</v>
       </c>
-      <c r="H139" s="54">
+      <c r="H139" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>65</v>
       </c>
-      <c r="I139" s="75">
+      <c r="I139" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.3500000000000005</v>
       </c>
-      <c r="J139" s="76">
+      <c r="J139" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
@@ -13303,479 +13253,479 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="73">
+      <c r="A140" s="67">
         <v>139</v>
       </c>
-      <c r="B140" s="74">
+      <c r="B140" s="68">
         <v>6</v>
       </c>
-      <c r="C140" s="53">
+      <c r="C140" s="54">
         <v>3</v>
       </c>
-      <c r="D140" s="53">
+      <c r="D140" s="54">
         <v>4.8</v>
       </c>
-      <c r="E140" s="53">
+      <c r="E140" s="94">
         <v>1.8</v>
       </c>
-      <c r="F140" s="54" t="s">
+      <c r="F140" s="95" t="s">
         <v>63</v>
       </c>
       <c r="G140" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0641898326896384</v>
       </c>
-      <c r="H140" s="54">
+      <c r="H140" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>32</v>
       </c>
-      <c r="I140" s="75">
+      <c r="I140" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9500000000000004</v>
       </c>
-      <c r="J140" s="76">
+      <c r="J140" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="73">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="67">
         <v>140</v>
       </c>
-      <c r="B141" s="74">
+      <c r="B141" s="68">
         <v>6.9</v>
       </c>
-      <c r="C141" s="53">
+      <c r="C141" s="54">
         <v>3.1</v>
       </c>
-      <c r="D141" s="53">
+      <c r="D141" s="54">
         <v>5.4</v>
       </c>
-      <c r="E141" s="53">
+      <c r="E141" s="54">
         <v>2.1</v>
       </c>
-      <c r="F141" s="54" t="s">
+      <c r="F141" s="96" t="s">
         <v>63</v>
       </c>
       <c r="G141" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4874474780643525</v>
       </c>
-      <c r="H141" s="54">
+      <c r="H141" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>64</v>
       </c>
-      <c r="I141" s="75">
+      <c r="I141" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.4500000000000011</v>
       </c>
-      <c r="J141" s="76">
+      <c r="J141" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="73">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="67">
         <v>141</v>
       </c>
-      <c r="B142" s="74">
+      <c r="B142" s="68">
         <v>6.7</v>
       </c>
-      <c r="C142" s="53">
+      <c r="C142" s="54">
         <v>3.1</v>
       </c>
-      <c r="D142" s="53">
+      <c r="D142" s="54">
         <v>5.6</v>
       </c>
-      <c r="E142" s="53">
+      <c r="E142" s="54">
         <v>2.4</v>
       </c>
-      <c r="F142" s="54" t="s">
+      <c r="F142" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G142" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7839562774911273</v>
       </c>
-      <c r="H142" s="54">
+      <c r="H142" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>76</v>
       </c>
-      <c r="I142" s="75">
+      <c r="I142" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.75</v>
       </c>
-      <c r="J142" s="76">
+      <c r="J142" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="73">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="67">
         <v>142</v>
       </c>
-      <c r="B143" s="74">
+      <c r="B143" s="68">
         <v>6.9</v>
       </c>
-      <c r="C143" s="53">
+      <c r="C143" s="54">
         <v>3.1</v>
       </c>
-      <c r="D143" s="53">
+      <c r="D143" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E143" s="53">
+      <c r="E143" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F143" s="54" t="s">
+      <c r="F143" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G143" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3425721582097552</v>
       </c>
-      <c r="H143" s="54">
+      <c r="H143" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>54</v>
       </c>
-      <c r="I143" s="75">
+      <c r="I143" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.35</v>
       </c>
-      <c r="J143" s="76">
+      <c r="J143" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="73">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="67">
         <v>143</v>
       </c>
-      <c r="B144" s="74">
+      <c r="B144" s="68">
         <v>5.8</v>
       </c>
-      <c r="C144" s="53">
+      <c r="C144" s="54">
         <v>2.7</v>
       </c>
-      <c r="D144" s="53">
+      <c r="D144" s="54">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E144" s="53">
+      <c r="E144" s="54">
         <v>1.9</v>
       </c>
-      <c r="F144" s="54" t="s">
+      <c r="F144" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G144" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4044571905188141</v>
       </c>
-      <c r="H144" s="54">
+      <c r="H144" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>59</v>
       </c>
-      <c r="I144" s="75">
+      <c r="I144" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.35</v>
       </c>
-      <c r="J144" s="76">
+      <c r="J144" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="73">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="67">
         <v>144</v>
       </c>
-      <c r="B145" s="74">
+      <c r="B145" s="68">
         <v>6.8</v>
       </c>
-      <c r="C145" s="53">
+      <c r="C145" s="54">
         <v>3.2</v>
       </c>
-      <c r="D145" s="53">
+      <c r="D145" s="54">
         <v>5.9</v>
       </c>
-      <c r="E145" s="53">
+      <c r="E145" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F145" s="54" t="s">
+      <c r="F145" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G145" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0229928324143915</v>
       </c>
-      <c r="H145" s="54">
+      <c r="H145" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>88</v>
       </c>
-      <c r="I145" s="75">
+      <c r="I145" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="J145" s="76">
+      <c r="J145" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="73">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="67">
         <v>145</v>
       </c>
-      <c r="B146" s="74">
+      <c r="B146" s="68">
         <v>6.7</v>
       </c>
-      <c r="C146" s="53">
+      <c r="C146" s="54">
         <v>3.3</v>
       </c>
-      <c r="D146" s="53">
+      <c r="D146" s="54">
         <v>5.7</v>
       </c>
-      <c r="E146" s="53">
+      <c r="E146" s="54">
         <v>2.5</v>
       </c>
-      <c r="F146" s="54" t="s">
+      <c r="F146" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G146" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.965324400703355</v>
       </c>
-      <c r="H146" s="54">
+      <c r="H146" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>84</v>
       </c>
-      <c r="I146" s="75">
+      <c r="I146" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="J146" s="76">
+      <c r="J146" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="73">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="67">
         <v>146</v>
       </c>
-      <c r="B147" s="74">
+      <c r="B147" s="68">
         <v>6.7</v>
       </c>
-      <c r="C147" s="53">
+      <c r="C147" s="54">
         <v>3</v>
       </c>
-      <c r="D147" s="53">
+      <c r="D147" s="54">
         <v>5.2</v>
       </c>
-      <c r="E147" s="53">
+      <c r="E147" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F147" s="54" t="s">
+      <c r="F147" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G147" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3829316685939335</v>
       </c>
-      <c r="H147" s="54">
+      <c r="H147" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>57</v>
       </c>
-      <c r="I147" s="75">
+      <c r="I147" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.1500000000000004</v>
       </c>
-      <c r="J147" s="76">
+      <c r="J147" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="73">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="67">
         <v>147</v>
       </c>
-      <c r="B148" s="74">
+      <c r="B148" s="68">
         <v>6.3</v>
       </c>
-      <c r="C148" s="53">
+      <c r="C148" s="54">
         <v>2.5</v>
       </c>
-      <c r="D148" s="53">
+      <c r="D148" s="54">
         <v>5</v>
       </c>
-      <c r="E148" s="53">
+      <c r="E148" s="54">
         <v>1.9</v>
       </c>
-      <c r="F148" s="54" t="s">
+      <c r="F148" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G148" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.092016483392078</v>
       </c>
-      <c r="H148" s="54">
+      <c r="H148" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>36</v>
       </c>
-      <c r="I148" s="75">
+      <c r="I148" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>1.9500000000000006</v>
       </c>
-      <c r="J148" s="76">
+      <c r="J148" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="73">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="67">
         <v>148</v>
       </c>
-      <c r="B149" s="74">
+      <c r="B149" s="68">
         <v>6.5</v>
       </c>
-      <c r="C149" s="53">
+      <c r="C149" s="54">
         <v>3</v>
       </c>
-      <c r="D149" s="53">
+      <c r="D149" s="54">
         <v>5.2</v>
       </c>
-      <c r="E149" s="53">
+      <c r="E149" s="54">
         <v>2</v>
       </c>
-      <c r="F149" s="54" t="s">
+      <c r="F149" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G149" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2500000000000004</v>
       </c>
-      <c r="H149" s="54">
+      <c r="H149" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>47</v>
       </c>
-      <c r="I149" s="75">
+      <c r="I149" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.0500000000000007</v>
       </c>
-      <c r="J149" s="76">
+      <c r="J149" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="73">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="67">
         <v>149</v>
       </c>
-      <c r="B150" s="74">
+      <c r="B150" s="68">
         <v>6.2</v>
       </c>
-      <c r="C150" s="53">
+      <c r="C150" s="54">
         <v>3.4</v>
       </c>
-      <c r="D150" s="53">
+      <c r="D150" s="54">
         <v>5.4</v>
       </c>
-      <c r="E150" s="53">
+      <c r="E150" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F150" s="54" t="s">
+      <c r="F150" s="71" t="s">
         <v>63</v>
       </c>
       <c r="G150" s="69">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7327723451163459</v>
       </c>
-      <c r="H150" s="54">
+      <c r="H150" s="55">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>74</v>
       </c>
-      <c r="I150" s="75">
+      <c r="I150" s="70">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>3.2500000000000004</v>
       </c>
-      <c r="J150" s="76">
+      <c r="J150" s="71">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="82">
+    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="77">
         <v>150</v>
       </c>
-      <c r="B151" s="83">
+      <c r="B151" s="78">
         <v>5.9</v>
       </c>
-      <c r="C151" s="84">
+      <c r="C151" s="79">
         <v>3</v>
       </c>
-      <c r="D151" s="84">
+      <c r="D151" s="79">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E151" s="84">
+      <c r="E151" s="79">
         <v>1.8</v>
       </c>
-      <c r="F151" s="85" t="s">
+      <c r="F151" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G151" s="69">
+      <c r="G151" s="97">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3388427838995882</v>
       </c>
-      <c r="H151" s="85">
+      <c r="H151" s="59">
         <f>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</f>
         <v>53</v>
       </c>
-      <c r="I151" s="86">
+      <c r="I151" s="80">
         <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
         <v>2.3499999999999996</v>
       </c>
-      <c r="J151" s="87">
+      <c r="J151" s="81">
         <f>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</f>
@@ -13787,16 +13737,16 @@
     <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G151">
-    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H151">
-    <cfRule type="top10" dxfId="5" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="8" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I151">
-    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="7" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J151">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/AEC ML Classwork.xlsx
+++ b/AEC ML Classwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AEC ML Python Jan 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA5D6DA-9560-48BE-9E1D-F9BF2AB72722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F135909A-6CFD-4C28-B199-CDDEB740171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8CC9547A-2696-4746-9FED-81AAE1334FA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{8CC9547A-2696-4746-9FED-81AAE1334FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation and Regression" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,12 @@
     <sheet name="K-NN" sheetId="3" r:id="rId3"/>
     <sheet name="K-NN (Iris)" sheetId="4" r:id="rId4"/>
     <sheet name="Decision Tree" sheetId="5" r:id="rId5"/>
+    <sheet name="K-Means" sheetId="6" r:id="rId6"/>
+    <sheet name="Hierarchical Clustering " sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="176">
   <si>
     <t>Student</t>
   </si>
@@ -517,6 +522,120 @@
       <t>Perfectly classified, Gini Index would be zero.</t>
     </r>
   </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Var-1</t>
+  </si>
+  <si>
+    <t>Var-2</t>
+  </si>
+  <si>
+    <t>From C1-1</t>
+  </si>
+  <si>
+    <t>From C2-1</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>From C1-2</t>
+  </si>
+  <si>
+    <t>From C2-2</t>
+  </si>
+  <si>
+    <t>From C1-3</t>
+  </si>
+  <si>
+    <t>From C2-3</t>
+  </si>
+  <si>
+    <t>C1-1</t>
+  </si>
+  <si>
+    <t>C2-1</t>
+  </si>
+  <si>
+    <t>C1-2</t>
+  </si>
+  <si>
+    <t>C2-2</t>
+  </si>
+  <si>
+    <t>C1-3</t>
+  </si>
+  <si>
+    <t>C2-3</t>
+  </si>
+  <si>
+    <t>New Data Point</t>
+  </si>
+  <si>
+    <t>From C1</t>
+  </si>
+  <si>
+    <t>From C2</t>
+  </si>
+  <si>
+    <t>Cluster No.</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering Example</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MI/TO</t>
+  </si>
+  <si>
+    <t>TO/MI</t>
+  </si>
+  <si>
+    <t>NA/RM</t>
+  </si>
+  <si>
+    <t>BA/(NA/RM)</t>
+  </si>
+  <si>
+    <t>FI/(TO/MI)</t>
+  </si>
+  <si>
+    <t>BA: Buenos Aires (Argentina), British Airways (airline), Bachelor of Arts (degree)</t>
+  </si>
+  <si>
+    <t>NA: North America (continent), National Archives (organization), North Atlantic (ocean)</t>
+  </si>
+  <si>
+    <t>RM: Rome (Italy), Royal Mail (postal service in the UK), Records Management (industry term)</t>
+  </si>
+  <si>
+    <t>FI: Finland (country), Financial Institution (industry term), Federated States of Micronesia (country)</t>
+  </si>
+  <si>
+    <t>TO: Toronto (Canada), Time Out (magazine), Take Out (food service)</t>
+  </si>
+  <si>
+    <t>MI: Michigan (state in the USA), Military Intelligence (industry term), Migraine (health condition)</t>
+  </si>
 </sst>
 </file>
 
@@ -526,7 +645,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -666,8 +785,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,8 +851,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1356,12 +1527,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1638,12 +1831,381 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A99A7498-3D79-4D0B-A13A-861C2DF6DE79}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3316,6 +3878,820 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Means Implementation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53E5-4749-9D81-48C66AB63CB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53E5-4749-9D81-48C66AB63CB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>C2-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53E5-4749-9D81-48C66AB63CB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C1-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53E5-4749-9D81-48C66AB63CB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>C2-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="11"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-53E5-4749-9D81-48C66AB63CB9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-53E5-4749-9D81-48C66AB63CB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Test Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-53E5-4749-9D81-48C66AB63CB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="631905759"/>
+        <c:axId val="627528431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="631905759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Var1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627528431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="627528431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Var2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631905759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3357,6 +4733,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3913,6 +5329,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6714,8 +8646,241 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>345623</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2723</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D0F319-535D-AE4B-71BE-9C4F444E46D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D6F1B5-3805-4B2C-BC71-D204D542F125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1291589" y="541020"/>
+          <a:ext cx="6600825" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="K-Means"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1.5</v>
+          </cell>
+          <cell r="D5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+          <cell r="D6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>5</v>
+          </cell>
+          <cell r="D7">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>3.5</v>
+          </cell>
+          <cell r="D8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>4.5</v>
+          </cell>
+          <cell r="D9">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>3.5</v>
+          </cell>
+          <cell r="D10">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>1.8333333333333333</v>
+          </cell>
+          <cell r="D14">
+            <v>2.3333333333333335</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>4.125</v>
+          </cell>
+          <cell r="D15">
+            <v>5.375</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>1.25</v>
+          </cell>
+          <cell r="D16">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>3.9</v>
+          </cell>
+          <cell r="D17">
+            <v>5.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>3</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB43EA3F-2639-4912-A6CD-68B1FA4DA1FC}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB43EA3F-2639-4912-A6CD-68B1FA4DA1FC}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="A1:J151" xr:uid="{62B4E930-DFF6-4BF0-9F1C-5E4C67D47D9A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6732,30 +8897,45 @@
     <sortCondition ref="A2:A151"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F0E770F0-76D0-4E11-9E1C-BA6E469FD0C4}" name="Serial" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{09320463-33D6-4CC2-9A0A-E4451188FE36}" name="sepal_length" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{9EC19524-51FF-4BF4-AB27-728B3DD8D3DB}" name="sepal_width" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{EF24EDC0-A29C-41B6-A1E7-4EBF8635E391}" name="petal_length" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{780AEFD8-6D38-4193-AF80-A63FC8649791}" name="petal_width" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{AC2B65EA-BFFE-45BF-8ED1-FBDB797FC323}" name="species" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{3DA0E41B-844F-4D7A-A45D-228596D56C22}" name="Euclidean_x000a_Distance" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{F0E770F0-76D0-4E11-9E1C-BA6E469FD0C4}" name="Serial" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{09320463-33D6-4CC2-9A0A-E4451188FE36}" name="sepal_length" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9EC19524-51FF-4BF4-AB27-728B3DD8D3DB}" name="sepal_width" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{EF24EDC0-A29C-41B6-A1E7-4EBF8635E391}" name="petal_length" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{780AEFD8-6D38-4193-AF80-A63FC8649791}" name="petal_width" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{AC2B65EA-BFFE-45BF-8ED1-FBDB797FC323}" name="species" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{3DA0E41B-844F-4D7A-A45D-228596D56C22}" name="Euclidean_x000a_Distance" dataDxfId="23">
       <calculatedColumnFormula>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{406E0FBE-82DA-4F46-AAB8-DBCF6204FBF3}" name="Rank" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{406E0FBE-82DA-4F46-AAB8-DBCF6204FBF3}" name="Rank" dataDxfId="22">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CA793E46-2D4C-4DB1-9517-34DD947BF02F}" name="Manhattan_x000a_Distance" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{CA793E46-2D4C-4DB1-9517-34DD947BF02F}" name="Manhattan_x000a_Distance" dataDxfId="21">
       <calculatedColumnFormula>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2BAF090F-8A9E-425C-B25F-B673B8775D4B}" name="Rank2" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{2BAF090F-8A9E-425C-B25F-B673B8775D4B}" name="Rank2" dataDxfId="20">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76B15046-FD64-43E2-9182-0A0D6C81401B}" name="Table13" displayName="Table13" ref="M3:S9" headerRowDxfId="10" totalsRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E870D7CE-86AB-49DB-8C28-DAC33217770F}" name="Distance" totalsRowLabel="Total" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{48B6A838-7730-4B26-9090-3A28219EA4F8}" name="BA" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0649B5EA-5B3F-42D6-8A63-D24441F5BFBB}" name="FI" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{08CE3FAD-AA21-4C54-90BE-5D192DF65B79}" name="MI" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A6B60056-FFE6-4DCF-9939-83F57C157B20}" name="NA" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BC48EAD5-0B23-4E84-951D-66E98C51A2A4}" name="RM" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A800829A-AD85-406E-A812-440317CE7EFA}" name="TO" totalsRowFunction="sum" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8390,16 +10570,16 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="top10" dxfId="8" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="19" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F17">
-    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="18" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="top10" dxfId="6" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="17" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H17">
-    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="16" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -14511,16 +16691,16 @@
     <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G151">
-    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="15" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H151">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="14" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I151">
-    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J151">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14533,7 +16713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D3F9A-87F1-4ADD-8643-DC95180BA856}">
   <dimension ref="B1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -16534,7 +18714,7 @@
     <mergeCell ref="H61:I61"/>
   </mergeCells>
   <conditionalFormatting sqref="X4:AC17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$AC4="No - 0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16542,4 +18722,1179 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE5D294-8E74-4456-8429-984CF1276686}">
+  <dimension ref="B1:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="45"/>
+    <col min="5" max="5" width="9" style="45" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="45"/>
+    <col min="8" max="8" width="9.109375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="45"/>
+    <col min="10" max="10" width="9.21875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="137"/>
+      <c r="H2" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="137"/>
+      <c r="K2" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="137"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="139" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="140" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="140" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="142">
+        <v>1</v>
+      </c>
+      <c r="C4" s="143">
+        <v>1</v>
+      </c>
+      <c r="D4" s="144">
+        <v>1</v>
+      </c>
+      <c r="E4" s="203">
+        <f>SQRT((C4-$C$12)^2+(D4-$D$12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="206">
+        <f>SQRT((C4-$C$13)^2+(D4-$D$13)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="G4" s="209" t="str">
+        <f>IF(E4&lt;=F4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="H4" s="203">
+        <f>SQRT((C4-$C$14)^2+(D4-$D$14)^2)</f>
+        <v>1.5723301886761007</v>
+      </c>
+      <c r="I4" s="206">
+        <f>SQRT((C4-$C$15)^2+(D4-$D$15)^2)</f>
+        <v>5.3764532919016421</v>
+      </c>
+      <c r="J4" s="211" t="str">
+        <f>IF(H4&lt;=I4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="K4" s="206">
+        <f>SQRT((C4-$C$16)^2+(D4-$D$16)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="L4" s="206">
+        <f>SQRT((C4-$C$17)^2+(D4-$D$17)^2)</f>
+        <v>5.0219518117958879</v>
+      </c>
+      <c r="M4" s="211" t="str">
+        <f>IF(K4&lt;=L4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="142">
+        <v>2</v>
+      </c>
+      <c r="C5" s="143">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="144">
+        <v>2</v>
+      </c>
+      <c r="E5" s="204">
+        <f t="shared" ref="E5:E10" si="0">SQRT((C5-$C$12)^2+(D5-$D$12)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="F5" s="207">
+        <f t="shared" ref="F5:F10" si="1">SQRT((C5-$C$13)^2+(D5-$D$13)^2)</f>
+        <v>6.103277807866851</v>
+      </c>
+      <c r="G5" s="210" t="str">
+        <f t="shared" ref="G5:G10" si="2">IF(E5&lt;=F5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="H5" s="204">
+        <f t="shared" ref="H5:H10" si="3">SQRT((C5-$C$14)^2+(D5-$D$14)^2)</f>
+        <v>0.47140452079103173</v>
+      </c>
+      <c r="I5" s="207">
+        <f t="shared" ref="I5:I10" si="4">SQRT((C5-$C$15)^2+(D5-$D$15)^2)</f>
+        <v>4.2756578441217679</v>
+      </c>
+      <c r="J5" s="212" t="str">
+        <f t="shared" ref="J5:J10" si="5">IF(H5&lt;=I5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="K5" s="207">
+        <f t="shared" ref="K5:K10" si="6">SQRT((C5-$C$16)^2+(D5-$D$16)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="L5" s="207">
+        <f t="shared" ref="L5:L10" si="7">SQRT((C5-$C$17)^2+(D5-$D$17)^2)</f>
+        <v>3.9204591567825315</v>
+      </c>
+      <c r="M5" s="212" t="str">
+        <f t="shared" ref="M5:M10" si="8">IF(K5&lt;=L5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="142">
+        <v>3</v>
+      </c>
+      <c r="C6" s="143">
+        <v>3</v>
+      </c>
+      <c r="D6" s="144">
+        <v>4</v>
+      </c>
+      <c r="E6" s="204">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F6" s="207">
+        <f t="shared" si="1"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G6" s="210" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+      <c r="H6" s="204">
+        <f t="shared" si="3"/>
+        <v>2.0344259359556172</v>
+      </c>
+      <c r="I6" s="207">
+        <f t="shared" si="4"/>
+        <v>1.7765838004439869</v>
+      </c>
+      <c r="J6" s="215" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K6" s="207">
+        <f t="shared" si="6"/>
+        <v>3.0516389039334255</v>
+      </c>
+      <c r="L6" s="207">
+        <f t="shared" si="7"/>
+        <v>1.4212670403551892</v>
+      </c>
+      <c r="M6" s="215" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="142">
+        <v>4</v>
+      </c>
+      <c r="C7" s="143">
+        <v>5</v>
+      </c>
+      <c r="D7" s="144">
+        <v>7</v>
+      </c>
+      <c r="E7" s="204">
+        <f t="shared" si="0"/>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="F7" s="207">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="213" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H7" s="204">
+        <f t="shared" si="3"/>
+        <v>5.6396414385628768</v>
+      </c>
+      <c r="I7" s="207">
+        <f t="shared" si="4"/>
+        <v>1.845602882529175</v>
+      </c>
+      <c r="J7" s="215" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K7" s="207">
+        <f t="shared" si="6"/>
+        <v>6.656763477847174</v>
+      </c>
+      <c r="L7" s="207">
+        <f t="shared" si="7"/>
+        <v>2.1954498400100153</v>
+      </c>
+      <c r="M7" s="215" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="142">
+        <v>5</v>
+      </c>
+      <c r="C8" s="143">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="144">
+        <v>5</v>
+      </c>
+      <c r="E8" s="204">
+        <f t="shared" si="0"/>
+        <v>4.7169905660283016</v>
+      </c>
+      <c r="F8" s="207">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="213" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H8" s="204">
+        <f t="shared" si="3"/>
+        <v>3.1446603773522015</v>
+      </c>
+      <c r="I8" s="207">
+        <f t="shared" si="4"/>
+        <v>0.72886898685566259</v>
+      </c>
+      <c r="J8" s="215" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K8" s="207">
+        <f t="shared" si="6"/>
+        <v>4.1608292442733097</v>
+      </c>
+      <c r="L8" s="207">
+        <f t="shared" si="7"/>
+        <v>0.41231056256176585</v>
+      </c>
+      <c r="M8" s="215" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="142">
+        <v>6</v>
+      </c>
+      <c r="C9" s="143">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="144">
+        <v>5</v>
+      </c>
+      <c r="E9" s="204">
+        <f t="shared" si="0"/>
+        <v>5.315072906367325</v>
+      </c>
+      <c r="F9" s="207">
+        <f t="shared" si="1"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="G9" s="213" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H9" s="204">
+        <f t="shared" si="3"/>
+        <v>3.7712361663282534</v>
+      </c>
+      <c r="I9" s="207">
+        <f t="shared" si="4"/>
+        <v>0.5303300858899106</v>
+      </c>
+      <c r="J9" s="215" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K9" s="207">
+        <f t="shared" si="6"/>
+        <v>4.7762432936356998</v>
+      </c>
+      <c r="L9" s="207">
+        <f t="shared" si="7"/>
+        <v>0.60827625302982202</v>
+      </c>
+      <c r="M9" s="215" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="145">
+        <v>7</v>
+      </c>
+      <c r="C10" s="146">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="147">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="205">
+        <f t="shared" si="0"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="F10" s="208">
+        <f t="shared" si="1"/>
+        <v>2.9154759474226504</v>
+      </c>
+      <c r="G10" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H10" s="205">
+        <f t="shared" si="3"/>
+        <v>2.733536577809454</v>
+      </c>
+      <c r="I10" s="208">
+        <f t="shared" si="4"/>
+        <v>1.0752906583803283</v>
+      </c>
+      <c r="J10" s="216" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K10" s="208">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="L10" s="208">
+        <f t="shared" si="7"/>
+        <v>0.72111025509279758</v>
+      </c>
+      <c r="M10" s="216" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="149">
+        <v>1</v>
+      </c>
+      <c r="D12" s="150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="146">
+        <v>5</v>
+      </c>
+      <c r="D13" s="151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="149">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="D14" s="150">
+        <f>AVERAGE(D4:D6)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="146">
+        <f>AVERAGE(C7:C10)</f>
+        <v>4.125</v>
+      </c>
+      <c r="D15" s="151">
+        <f>AVERAGE(D7:D10)</f>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="143">
+        <f>AVERAGE(C4:C5)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="152">
+        <f>AVERAGE(D4:D5)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="146">
+        <f>AVERAGE(C6:C10)</f>
+        <v>3.9</v>
+      </c>
+      <c r="D17" s="151">
+        <f>AVERAGE(D6:D10)</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="153"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="155" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="157">
+        <v>3</v>
+      </c>
+      <c r="C21" s="158">
+        <v>3</v>
+      </c>
+      <c r="D21" s="158">
+        <f>SQRT((B21-C16)^2+(C21-D16)^2)</f>
+        <v>2.3048861143232218</v>
+      </c>
+      <c r="E21" s="158">
+        <f>SQRT((B21-C17)^2+(C21-D17)^2)</f>
+        <v>2.2847319317591719</v>
+      </c>
+      <c r="F21" s="159" t="str">
+        <f>IF(D21&lt;=E21,"Cluster-1","Cluster-2")</f>
+        <v>Cluster-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C14:D15 C16:D17" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C95BA7-9E0B-472E-9D74-6EC4DBA6CAA0}">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="45"/>
+    <col min="2" max="2" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.88671875" style="45"/>
+    <col min="9" max="10" width="12.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="45"/>
+    <col min="14" max="15" width="12.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+    </row>
+    <row r="2" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+    </row>
+    <row r="3" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="M3" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="164" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="165" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="165" t="s">
+        <v>163</v>
+      </c>
+      <c r="S3" s="166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="M4" s="167" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="168">
+        <v>0</v>
+      </c>
+      <c r="O4" s="169">
+        <v>662</v>
+      </c>
+      <c r="P4" s="169">
+        <v>877</v>
+      </c>
+      <c r="Q4" s="169">
+        <v>255</v>
+      </c>
+      <c r="R4" s="169">
+        <v>412</v>
+      </c>
+      <c r="S4" s="170">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="M5" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="171">
+        <v>662</v>
+      </c>
+      <c r="O5" s="172">
+        <v>0</v>
+      </c>
+      <c r="P5" s="172">
+        <v>295</v>
+      </c>
+      <c r="Q5" s="172">
+        <v>468</v>
+      </c>
+      <c r="R5" s="172">
+        <v>268</v>
+      </c>
+      <c r="S5" s="173">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="M6" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="171">
+        <v>877</v>
+      </c>
+      <c r="O6" s="172">
+        <v>295</v>
+      </c>
+      <c r="P6" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="172">
+        <v>754</v>
+      </c>
+      <c r="R6" s="172">
+        <v>564</v>
+      </c>
+      <c r="S6" s="174">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="M7" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="171">
+        <v>255</v>
+      </c>
+      <c r="O7" s="172">
+        <v>468</v>
+      </c>
+      <c r="P7" s="172">
+        <v>754</v>
+      </c>
+      <c r="Q7" s="172">
+        <v>0</v>
+      </c>
+      <c r="R7" s="172">
+        <v>219</v>
+      </c>
+      <c r="S7" s="173">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="M8" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="171">
+        <v>412</v>
+      </c>
+      <c r="O8" s="172">
+        <v>268</v>
+      </c>
+      <c r="P8" s="172">
+        <v>564</v>
+      </c>
+      <c r="Q8" s="172">
+        <v>219</v>
+      </c>
+      <c r="R8" s="172">
+        <v>0</v>
+      </c>
+      <c r="S8" s="173">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="M9" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="175">
+        <v>996</v>
+      </c>
+      <c r="O9" s="176">
+        <v>400</v>
+      </c>
+      <c r="P9" s="177">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="176">
+        <v>869</v>
+      </c>
+      <c r="R9" s="176">
+        <v>669</v>
+      </c>
+      <c r="S9" s="178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+    </row>
+    <row r="12" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="M12" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="181" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" s="181" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="182" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="M13" s="183" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="184">
+        <v>0</v>
+      </c>
+      <c r="O13" s="185">
+        <v>662</v>
+      </c>
+      <c r="P13" s="185">
+        <v>877</v>
+      </c>
+      <c r="Q13" s="185">
+        <v>255</v>
+      </c>
+      <c r="R13" s="186">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="M14" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="171">
+        <v>662</v>
+      </c>
+      <c r="O14" s="172">
+        <v>0</v>
+      </c>
+      <c r="P14" s="172">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="172">
+        <v>468</v>
+      </c>
+      <c r="R14" s="188">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="M15" s="187" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" s="189">
+        <v>877</v>
+      </c>
+      <c r="O15" s="190">
+        <v>295</v>
+      </c>
+      <c r="P15" s="190">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="190">
+        <v>754</v>
+      </c>
+      <c r="R15" s="191">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="162"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="M16" s="187" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" s="171">
+        <v>255</v>
+      </c>
+      <c r="O16" s="172">
+        <v>468</v>
+      </c>
+      <c r="P16" s="172">
+        <v>754</v>
+      </c>
+      <c r="Q16" s="172">
+        <v>0</v>
+      </c>
+      <c r="R16" s="192">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="M17" s="193" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="194">
+        <v>412</v>
+      </c>
+      <c r="O17" s="195">
+        <v>268</v>
+      </c>
+      <c r="P17" s="195">
+        <v>564</v>
+      </c>
+      <c r="Q17" s="196">
+        <v>219</v>
+      </c>
+      <c r="R17" s="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="180" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="181" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="N20" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" s="180" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="181" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="183" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="184">
+        <v>0</v>
+      </c>
+      <c r="E21" s="185">
+        <v>662</v>
+      </c>
+      <c r="F21" s="185">
+        <v>877</v>
+      </c>
+      <c r="G21" s="198">
+        <v>255</v>
+      </c>
+      <c r="I21" s="183" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="184">
+        <v>0</v>
+      </c>
+      <c r="K21" s="185">
+        <v>268</v>
+      </c>
+      <c r="L21" s="185">
+        <v>564</v>
+      </c>
+      <c r="N21" s="183" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" s="184">
+        <v>0</v>
+      </c>
+      <c r="P21" s="185">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="171">
+        <v>662</v>
+      </c>
+      <c r="E22" s="172">
+        <v>0</v>
+      </c>
+      <c r="F22" s="172">
+        <v>295</v>
+      </c>
+      <c r="G22" s="172">
+        <v>268</v>
+      </c>
+      <c r="I22" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="171">
+        <v>268</v>
+      </c>
+      <c r="K22" s="172">
+        <v>0</v>
+      </c>
+      <c r="L22" s="199">
+        <v>295</v>
+      </c>
+      <c r="N22" s="187" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" s="171">
+        <v>268</v>
+      </c>
+      <c r="P22" s="172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="189">
+        <v>877</v>
+      </c>
+      <c r="E23" s="190">
+        <v>295</v>
+      </c>
+      <c r="F23" s="190">
+        <v>0</v>
+      </c>
+      <c r="G23" s="190">
+        <v>564</v>
+      </c>
+      <c r="I23" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="189">
+        <v>564</v>
+      </c>
+      <c r="K23" s="200">
+        <v>295</v>
+      </c>
+      <c r="L23" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="187" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="201">
+        <v>255</v>
+      </c>
+      <c r="E24" s="172">
+        <v>268</v>
+      </c>
+      <c r="F24" s="172">
+        <v>564</v>
+      </c>
+      <c r="G24" s="172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D26" s="202" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="202" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="202" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="202" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="202" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>